--- a/NEW HR/GONZALES, MARIO.xlsx
+++ b/NEW HR/GONZALES, MARIO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="79">
   <si>
     <t>PERIOD</t>
   </si>
@@ -264,6 +264,15 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>5/3,4/2023</t>
+  </si>
+  <si>
+    <t>SL(3-0-0)</t>
+  </si>
+  <si>
+    <t>4/11-13/2023</t>
   </si>
 </sst>
 </file>
@@ -1536,10 +1545,10 @@
   </sheetPr>
   <dimension ref="A2:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A62" activePane="bottomLeft"/>
       <selection activeCell="D8" sqref="D8"/>
-      <selection pane="bottomLeft" activeCell="E70" sqref="E70"/>
+      <selection pane="bottomLeft" activeCell="C78" sqref="C78:C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1700,7 +1709,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1710,7 +1719,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>78.75</v>
+        <v>80</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3151,13 +3160,15 @@
         <v>44986</v>
       </c>
       <c r="B79" s="12"/>
-      <c r="C79" s="14"/>
+      <c r="C79" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="12"/>
       <c r="E79" s="9"/>
       <c r="F79" s="12"/>
-      <c r="G79" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="12"/>
       <c r="I79" s="9"/>
@@ -3789,10 +3800,10 @@
   </sheetPr>
   <dimension ref="A2:K86"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A33" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A42" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="K52" sqref="K52"/>
+      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3953,7 +3964,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>116.661</v>
+        <v>113.661</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -3963,7 +3974,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>131.25</v>
+        <v>128.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4883,43 +4894,63 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="24"/>
-      <c r="B52" s="12"/>
+      <c r="A52" s="24">
+        <v>45017</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="C52" s="14"/>
-      <c r="D52" s="12"/>
+      <c r="D52" s="12">
+        <v>1</v>
+      </c>
       <c r="E52" s="9"/>
       <c r="F52" s="12"/>
       <c r="G52" s="14"/>
       <c r="H52" s="12"/>
       <c r="I52" s="9"/>
       <c r="J52" s="12"/>
-      <c r="K52" s="21"/>
+      <c r="K52" s="39">
+        <v>45044</v>
+      </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="24"/>
-      <c r="B53" s="12"/>
+      <c r="B53" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="C53" s="14"/>
-      <c r="D53" s="12"/>
+      <c r="D53" s="12">
+        <v>2</v>
+      </c>
       <c r="E53" s="9"/>
       <c r="F53" s="12"/>
       <c r="G53" s="14"/>
       <c r="H53" s="12"/>
       <c r="I53" s="9"/>
       <c r="J53" s="12"/>
-      <c r="K53" s="21"/>
+      <c r="K53" s="21" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="24"/>
-      <c r="B54" s="12"/>
+      <c r="B54" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="C54" s="14"/>
       <c r="D54" s="12"/>
       <c r="E54" s="9"/>
       <c r="F54" s="12"/>
       <c r="G54" s="14"/>
-      <c r="H54" s="12"/>
+      <c r="H54" s="12">
+        <v>3</v>
+      </c>
       <c r="I54" s="9"/>
       <c r="J54" s="12"/>
-      <c r="K54" s="21"/>
+      <c r="K54" s="21" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="24"/>

--- a/NEW HR/GONZALES, MARIO.xlsx
+++ b/NEW HR/GONZALES, MARIO.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="79">
   <si>
     <t>PERIOD</t>
   </si>
@@ -636,17 +636,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -656,6 +653,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1578,14 +1578,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1596,14 +1596,14 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="47"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="52"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -1616,16 +1616,16 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="47"/>
+      <c r="G4" s="48"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="49"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1651,18 +1651,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3755,17 +3755,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3803,7 +3803,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A42" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
+      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3833,14 +3833,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3851,14 +3851,14 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="47"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="52"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3871,16 +3871,16 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="47"/>
+      <c r="G4" s="48"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="49"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3906,18 +3906,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4953,8 +4953,12 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="24"/>
-      <c r="B55" s="12"/>
+      <c r="A55" s="24">
+        <v>45047</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="C55" s="14"/>
       <c r="D55" s="12"/>
       <c r="E55" s="9"/>
@@ -4963,7 +4967,9 @@
       <c r="H55" s="12"/>
       <c r="I55" s="9"/>
       <c r="J55" s="12"/>
-      <c r="K55" s="21"/>
+      <c r="K55" s="39">
+        <v>45062</v>
+      </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="24"/>

--- a/NEW HR/GONZALES, MARIO.xlsx
+++ b/NEW HR/GONZALES, MARIO.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="79">
   <si>
     <t>PERIOD</t>
   </si>
@@ -636,14 +636,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -653,9 +656,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1578,14 +1578,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1596,14 +1596,14 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="48"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -1616,16 +1616,16 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="48"/>
+      <c r="G4" s="47"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="48"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1651,18 +1651,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3755,17 +3755,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3803,7 +3803,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A42" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
+      <selection pane="bottomLeft" activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3833,14 +3833,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3851,14 +3851,14 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="48"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3871,16 +3871,16 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="48"/>
+      <c r="G4" s="47"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="48"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3906,18 +3906,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4972,8 +4972,12 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="24"/>
-      <c r="B56" s="12"/>
+      <c r="A56" s="24">
+        <v>45078</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="C56" s="14"/>
       <c r="D56" s="12"/>
       <c r="E56" s="9"/>
@@ -4982,7 +4986,9 @@
       <c r="H56" s="12"/>
       <c r="I56" s="9"/>
       <c r="J56" s="12"/>
-      <c r="K56" s="21"/>
+      <c r="K56" s="39">
+        <v>45093</v>
+      </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>

--- a/NEW HR/GONZALES, MARIO.xlsx
+++ b/NEW HR/GONZALES, MARIO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D58C35-87BA-4D93-90DD-4EEA89437167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="24" yWindow="48" windowWidth="23016" windowHeight="12312" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="3" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="80">
   <si>
     <t>PERIOD</t>
   </si>
@@ -273,12 +274,15 @@
   </si>
   <si>
     <t>4/11-13/2023</t>
+  </si>
+  <si>
+    <t>6/23,26/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -636,17 +640,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -656,6 +657,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1167,7 +1171,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1184,25 +1188,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K112" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K112" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1214,25 +1218,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K86" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K86" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1539,34 +1543,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K112"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A62" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="D8" sqref="D8"/>
-      <selection pane="bottomLeft" activeCell="C78" sqref="C78:C79"/>
+      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1578,16 +1582,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="48"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1596,16 +1600,16 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="47"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="51"/>
+      <c r="K3" s="52"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -1616,18 +1620,18 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="47"/>
+      <c r="G4" s="48"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="48"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="48"/>
+      <c r="K4" s="49"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -1635,7 +1639,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -1648,24 +1652,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1700,7 +1704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1709,7 +1713,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
+        <v>56.25</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1719,12 +1723,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>80</v>
+        <v>81.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
         <v>43</v>
       </c>
@@ -1746,7 +1750,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>43101</v>
       </c>
@@ -1766,7 +1770,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="39"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <v>43132</v>
       </c>
@@ -1786,7 +1790,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="39"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>43160</v>
       </c>
@@ -1806,7 +1810,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>43191</v>
       </c>
@@ -1826,7 +1830,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <v>43221</v>
       </c>
@@ -1846,7 +1850,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>43252</v>
       </c>
@@ -1872,7 +1876,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>43282</v>
       </c>
@@ -1892,7 +1896,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="39"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>43313</v>
       </c>
@@ -1912,7 +1916,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="39"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <v>43344</v>
       </c>
@@ -1938,7 +1942,7 @@
         <v>43371</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24">
         <v>43374</v>
       </c>
@@ -1958,7 +1962,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="24">
         <v>43405</v>
       </c>
@@ -1978,7 +1982,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="24">
         <v>43435</v>
       </c>
@@ -2002,7 +2006,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="37" t="s">
         <v>50</v>
       </c>
@@ -2020,7 +2024,7 @@
       <c r="J23" s="12"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="24">
         <v>43466</v>
       </c>
@@ -2040,7 +2044,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="24">
         <v>43497</v>
       </c>
@@ -2060,7 +2064,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="24">
         <v>43525</v>
       </c>
@@ -2086,7 +2090,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <v>43556</v>
       </c>
@@ -2106,7 +2110,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="24">
         <v>43586</v>
       </c>
@@ -2126,7 +2130,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="24">
         <v>43617</v>
       </c>
@@ -2146,7 +2150,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="24">
         <v>43647</v>
       </c>
@@ -2166,7 +2170,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="24">
         <v>43678</v>
       </c>
@@ -2186,7 +2190,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="24">
         <v>43709</v>
       </c>
@@ -2206,7 +2210,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="39"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="24">
         <v>43739</v>
       </c>
@@ -2226,7 +2230,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="24">
         <v>43770</v>
       </c>
@@ -2246,7 +2250,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="24">
         <v>43800</v>
       </c>
@@ -2270,7 +2274,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="37" t="s">
         <v>54</v>
       </c>
@@ -2288,7 +2292,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="24">
         <v>43831</v>
       </c>
@@ -2308,7 +2312,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="24">
         <v>43862</v>
       </c>
@@ -2328,7 +2332,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="39"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="24">
         <v>43891</v>
       </c>
@@ -2348,7 +2352,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="39"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="24">
         <v>43922</v>
       </c>
@@ -2368,7 +2372,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="24">
         <v>43952</v>
       </c>
@@ -2388,7 +2392,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="24">
         <v>43983</v>
       </c>
@@ -2408,7 +2412,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="24">
         <v>44013</v>
       </c>
@@ -2428,7 +2432,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="24">
         <v>44044</v>
       </c>
@@ -2448,7 +2452,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="39"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="24">
         <v>44075</v>
       </c>
@@ -2468,7 +2472,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="39"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="24">
         <v>44105</v>
       </c>
@@ -2488,7 +2492,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="24">
         <v>44136</v>
       </c>
@@ -2508,7 +2512,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="24">
         <v>44166</v>
       </c>
@@ -2532,7 +2536,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="37" t="s">
         <v>57</v>
       </c>
@@ -2550,7 +2554,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="24">
         <v>44197</v>
       </c>
@@ -2570,7 +2574,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="39"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="24">
         <v>44228</v>
       </c>
@@ -2590,7 +2594,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="24">
         <v>44256</v>
       </c>
@@ -2610,7 +2614,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="24">
         <v>44287</v>
       </c>
@@ -2630,7 +2634,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="24">
         <v>44317</v>
       </c>
@@ -2650,7 +2654,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="24">
         <v>44348</v>
       </c>
@@ -2670,7 +2674,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="24">
         <v>44378</v>
       </c>
@@ -2690,7 +2694,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="39"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="24">
         <v>44409</v>
       </c>
@@ -2710,7 +2714,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="24">
         <v>44440</v>
       </c>
@@ -2730,7 +2734,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="24">
         <v>44470</v>
       </c>
@@ -2750,7 +2754,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="39"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="24">
         <v>44501</v>
       </c>
@@ -2776,7 +2780,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="24">
         <v>44531</v>
       </c>
@@ -2796,7 +2800,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="39"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="37" t="s">
         <v>35</v>
       </c>
@@ -2814,7 +2818,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="24">
         <v>44562</v>
       </c>
@@ -2834,7 +2838,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="24">
         <v>44593</v>
       </c>
@@ -2860,22 +2864,20 @@
         <v>44601</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="24"/>
       <c r="B65" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="14">
-        <v>1.25</v>
-      </c>
+      <c r="C65" s="14"/>
       <c r="D65" s="12">
         <v>1</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="12"/>
-      <c r="G65" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G65" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H65" s="12"/>
       <c r="I65" s="9"/>
@@ -2884,7 +2886,7 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="24">
         <v>44621</v>
       </c>
@@ -2904,7 +2906,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="24">
         <f>EDATE(A66,1)</f>
         <v>44652</v>
@@ -2925,7 +2927,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="24">
         <f t="shared" ref="A68:A71" si="0">EDATE(A67,1)</f>
         <v>44682</v>
@@ -2946,7 +2948,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="24">
         <f t="shared" si="0"/>
         <v>44713</v>
@@ -2967,7 +2969,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="24">
         <f t="shared" si="0"/>
         <v>44743</v>
@@ -2988,7 +2990,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="24">
         <f t="shared" si="0"/>
         <v>44774</v>
@@ -3009,7 +3011,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="39"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="24">
         <f>EDATE(A71,1)</f>
         <v>44805</v>
@@ -3030,7 +3032,7 @@
       <c r="J72" s="13"/>
       <c r="K72" s="16"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="24">
         <f>EDATE(A72,1)</f>
         <v>44835</v>
@@ -3057,7 +3059,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="24">
         <v>44866</v>
       </c>
@@ -3077,7 +3079,7 @@
       <c r="J74" s="12"/>
       <c r="K74" s="21"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="24">
         <v>44896</v>
       </c>
@@ -3097,7 +3099,7 @@
       <c r="J75" s="12"/>
       <c r="K75" s="21"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="37" t="s">
         <v>75</v>
       </c>
@@ -3115,7 +3117,7 @@
       <c r="J76" s="12"/>
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="24">
         <v>44927</v>
       </c>
@@ -3135,7 +3137,7 @@
       <c r="J77" s="12"/>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="24">
         <v>44958</v>
       </c>
@@ -3155,7 +3157,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="24">
         <v>44986</v>
       </c>
@@ -3175,43 +3177,47 @@
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="24">
         <v>45017</v>
       </c>
       <c r="B80" s="12"/>
-      <c r="C80" s="14"/>
+      <c r="C80" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="12"/>
       <c r="E80" s="9"/>
       <c r="F80" s="12"/>
-      <c r="G80" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="12"/>
       <c r="I80" s="9"/>
       <c r="J80" s="12"/>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="24">
         <v>45047</v>
       </c>
       <c r="B81" s="12"/>
-      <c r="C81" s="14"/>
+      <c r="C81" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="12"/>
       <c r="E81" s="9"/>
       <c r="F81" s="12"/>
-      <c r="G81" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="12"/>
       <c r="I81" s="9"/>
       <c r="J81" s="12"/>
       <c r="K81" s="21"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="24">
         <v>45078</v>
       </c>
@@ -3229,7 +3235,7 @@
       <c r="J82" s="12"/>
       <c r="K82" s="21"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="24">
         <v>45108</v>
       </c>
@@ -3247,7 +3253,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="24">
         <v>45139</v>
       </c>
@@ -3265,7 +3271,7 @@
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="24">
         <v>45170</v>
       </c>
@@ -3283,7 +3289,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="24">
         <v>45200</v>
       </c>
@@ -3301,7 +3307,7 @@
       <c r="J86" s="12"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="24">
         <v>45231</v>
       </c>
@@ -3319,7 +3325,7 @@
       <c r="J87" s="12"/>
       <c r="K87" s="21"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="24">
         <v>45261</v>
       </c>
@@ -3337,7 +3343,7 @@
       <c r="J88" s="12"/>
       <c r="K88" s="21"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="24">
         <v>45292</v>
       </c>
@@ -3355,7 +3361,7 @@
       <c r="J89" s="12"/>
       <c r="K89" s="21"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="24">
         <v>45323</v>
       </c>
@@ -3373,7 +3379,7 @@
       <c r="J90" s="12"/>
       <c r="K90" s="21"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="24">
         <v>45352</v>
       </c>
@@ -3391,7 +3397,7 @@
       <c r="J91" s="12"/>
       <c r="K91" s="21"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="24">
         <v>45383</v>
       </c>
@@ -3409,7 +3415,7 @@
       <c r="J92" s="12"/>
       <c r="K92" s="21"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="24">
         <v>45413</v>
       </c>
@@ -3427,7 +3433,7 @@
       <c r="J93" s="12"/>
       <c r="K93" s="21"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="24">
         <v>45444</v>
       </c>
@@ -3445,7 +3451,7 @@
       <c r="J94" s="12"/>
       <c r="K94" s="21"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="24">
         <v>45474</v>
       </c>
@@ -3463,7 +3469,7 @@
       <c r="J95" s="12"/>
       <c r="K95" s="21"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="24">
         <v>45505</v>
       </c>
@@ -3481,7 +3487,7 @@
       <c r="J96" s="13"/>
       <c r="K96" s="16"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="24">
         <v>45536</v>
       </c>
@@ -3499,7 +3505,7 @@
       <c r="J97" s="12"/>
       <c r="K97" s="21"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="24">
         <v>45566</v>
       </c>
@@ -3517,7 +3523,7 @@
       <c r="J98" s="12"/>
       <c r="K98" s="21"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="24">
         <v>45597</v>
       </c>
@@ -3535,7 +3541,7 @@
       <c r="J99" s="12"/>
       <c r="K99" s="21"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="24">
         <v>45627</v>
       </c>
@@ -3553,7 +3559,7 @@
       <c r="J100" s="12"/>
       <c r="K100" s="21"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="24">
         <v>45658</v>
       </c>
@@ -3571,7 +3577,7 @@
       <c r="J101" s="12"/>
       <c r="K101" s="21"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="24">
         <v>45689</v>
       </c>
@@ -3589,7 +3595,7 @@
       <c r="J102" s="12"/>
       <c r="K102" s="21"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="24">
         <v>45717</v>
       </c>
@@ -3607,7 +3613,7 @@
       <c r="J103" s="12"/>
       <c r="K103" s="21"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="24">
         <v>45748</v>
       </c>
@@ -3625,7 +3631,7 @@
       <c r="J104" s="12"/>
       <c r="K104" s="21"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="24"/>
       <c r="B105" s="13"/>
       <c r="C105" s="14"/>
@@ -3641,7 +3647,7 @@
       <c r="J105" s="12"/>
       <c r="K105" s="21"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="24"/>
       <c r="B106" s="13"/>
       <c r="C106" s="14"/>
@@ -3657,7 +3663,7 @@
       <c r="J106" s="12"/>
       <c r="K106" s="21"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="24"/>
       <c r="B107" s="13"/>
       <c r="C107" s="14"/>
@@ -3673,7 +3679,7 @@
       <c r="J107" s="13"/>
       <c r="K107" s="16"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="24"/>
       <c r="B108" s="12"/>
       <c r="C108" s="14"/>
@@ -3689,7 +3695,7 @@
       <c r="J108" s="12"/>
       <c r="K108" s="21"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="24"/>
       <c r="B109" s="12"/>
       <c r="C109" s="14"/>
@@ -3705,7 +3711,7 @@
       <c r="J109" s="12"/>
       <c r="K109" s="21"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="24"/>
       <c r="B110" s="12"/>
       <c r="C110" s="14"/>
@@ -3721,7 +3727,7 @@
       <c r="J110" s="12"/>
       <c r="K110" s="21"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="24"/>
       <c r="B111" s="12"/>
       <c r="C111" s="14"/>
@@ -3737,7 +3743,7 @@
       <c r="J111" s="12"/>
       <c r="K111" s="21"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="24"/>
       <c r="B112" s="13"/>
       <c r="C112" s="14"/>
@@ -3755,23 +3761,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3794,34 +3800,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A42" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A49" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="K57" sqref="K57"/>
+      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -3833,16 +3839,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="48"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -3851,16 +3857,16 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="47"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="51"/>
+      <c r="K3" s="52"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -3871,18 +3877,18 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="47"/>
+      <c r="G4" s="48"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="48"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="48"/>
+      <c r="K4" s="49"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -3890,7 +3896,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -3903,24 +3909,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3955,7 +3961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -3974,12 +3980,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>128.25</v>
+        <v>126.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
         <v>43</v>
       </c>
@@ -4001,7 +4007,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>43101</v>
       </c>
@@ -4023,7 +4029,7 @@
         <v>43130</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="24"/>
       <c r="B12" s="21" t="s">
         <v>44</v>
@@ -4045,7 +4051,7 @@
         <v>43144</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>43132</v>
       </c>
@@ -4069,7 +4075,7 @@
         <v>43179</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>43252</v>
       </c>
@@ -4093,7 +4099,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <v>43282</v>
       </c>
@@ -4115,7 +4121,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="24"/>
       <c r="B16" s="21" t="s">
         <v>44</v>
@@ -4137,7 +4143,7 @@
         <v>43308</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>43313</v>
       </c>
@@ -4161,7 +4167,7 @@
         <v>43334</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>43344</v>
       </c>
@@ -4185,7 +4191,7 @@
         <v>43350</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="24"/>
       <c r="B19" s="21" t="s">
         <v>44</v>
@@ -4205,7 +4211,7 @@
         <v>43370</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
         <v>50</v>
       </c>
@@ -4223,7 +4229,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="24">
         <v>43525</v>
       </c>
@@ -4245,7 +4251,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="24">
         <v>43709</v>
       </c>
@@ -4269,7 +4275,7 @@
         <v>43673</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="24">
         <v>43800</v>
       </c>
@@ -4291,7 +4297,7 @@
         <v>43809</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="37" t="s">
         <v>54</v>
       </c>
@@ -4309,7 +4315,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="24">
         <v>43831</v>
       </c>
@@ -4327,7 +4333,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="24">
         <v>43862</v>
       </c>
@@ -4349,7 +4355,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="24"/>
       <c r="B27" s="21" t="s">
         <v>55</v>
@@ -4369,7 +4375,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="24">
         <v>43891</v>
       </c>
@@ -4391,7 +4397,7 @@
         <v>43902</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="24">
         <v>44044</v>
       </c>
@@ -4413,7 +4419,7 @@
         <v>44057</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="24">
         <v>44075</v>
       </c>
@@ -4437,7 +4443,7 @@
         <v>44088</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="24">
         <v>44166</v>
       </c>
@@ -4461,7 +4467,7 @@
         <v>44193</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="37" t="s">
         <v>57</v>
       </c>
@@ -4479,7 +4485,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="24">
         <v>44197</v>
       </c>
@@ -4503,7 +4509,7 @@
         <v>44204</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="24"/>
       <c r="B34" s="21" t="s">
         <v>39</v>
@@ -4523,7 +4529,7 @@
         <v>44225</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="24">
         <v>44256</v>
       </c>
@@ -4545,7 +4551,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="24">
         <v>44378</v>
       </c>
@@ -4569,7 +4575,7 @@
         <v>44378</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="24">
         <v>44470</v>
       </c>
@@ -4593,7 +4599,7 @@
         <v>44491</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="24"/>
       <c r="B38" s="21" t="s">
         <v>44</v>
@@ -4615,7 +4621,7 @@
         <v>44496</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="24"/>
       <c r="B39" s="21" t="s">
         <v>44</v>
@@ -4637,7 +4643,7 @@
         <v>44498</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="24">
         <v>44501</v>
       </c>
@@ -4661,7 +4667,7 @@
         <v>44519</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="37" t="s">
         <v>35</v>
       </c>
@@ -4679,7 +4685,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="24">
         <v>44562</v>
       </c>
@@ -4701,7 +4707,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="24">
         <v>44593</v>
       </c>
@@ -4723,7 +4729,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="24">
         <v>44774</v>
       </c>
@@ -4747,7 +4753,7 @@
         <v>44795</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="24"/>
       <c r="B45" s="21" t="s">
         <v>47</v>
@@ -4769,7 +4775,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="24"/>
       <c r="B46" s="21" t="s">
         <v>47</v>
@@ -4791,7 +4797,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="24">
         <v>44805</v>
       </c>
@@ -4815,7 +4821,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="24"/>
       <c r="B48" s="21" t="s">
         <v>44</v>
@@ -4837,7 +4843,7 @@
         <v>44823</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="24"/>
       <c r="B49" s="21" t="s">
         <v>44</v>
@@ -4859,7 +4865,7 @@
         <v>44806</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="37" t="s">
         <v>75</v>
       </c>
@@ -4874,7 +4880,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="24">
         <v>44927</v>
       </c>
@@ -4893,7 +4899,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="24">
         <v>45017</v>
       </c>
@@ -4914,7 +4920,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="24"/>
       <c r="B53" s="12" t="s">
         <v>45</v>
@@ -4933,7 +4939,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="24"/>
       <c r="B54" s="12" t="s">
         <v>77</v>
@@ -4952,7 +4958,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="24">
         <v>45047</v>
       </c>
@@ -4971,7 +4977,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="24">
         <v>45078</v>
       </c>
@@ -4990,20 +4996,28 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="24"/>
-      <c r="B57" s="12"/>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="24">
+        <v>45104</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>47</v>
+      </c>
       <c r="C57" s="14"/>
       <c r="D57" s="12"/>
       <c r="E57" s="9"/>
       <c r="F57" s="12"/>
       <c r="G57" s="14"/>
-      <c r="H57" s="12"/>
+      <c r="H57" s="12">
+        <v>2</v>
+      </c>
       <c r="I57" s="9"/>
       <c r="J57" s="12"/>
-      <c r="K57" s="21"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K57" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="24"/>
       <c r="B58" s="12"/>
       <c r="C58" s="14"/>
@@ -5016,7 +5030,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="24"/>
       <c r="B59" s="12"/>
       <c r="C59" s="14"/>
@@ -5029,7 +5043,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="24"/>
       <c r="B60" s="12"/>
       <c r="C60" s="14"/>
@@ -5042,7 +5056,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="24"/>
       <c r="B61" s="12"/>
       <c r="C61" s="14"/>
@@ -5055,7 +5069,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="24"/>
       <c r="B62" s="12"/>
       <c r="C62" s="14"/>
@@ -5068,7 +5082,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="24"/>
       <c r="B63" s="12"/>
       <c r="C63" s="14"/>
@@ -5081,7 +5095,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="24"/>
       <c r="B64" s="12"/>
       <c r="C64" s="14"/>
@@ -5094,7 +5108,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="24"/>
       <c r="B65" s="12"/>
       <c r="C65" s="14"/>
@@ -5107,7 +5121,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="24"/>
       <c r="B66" s="12"/>
       <c r="C66" s="14"/>
@@ -5120,7 +5134,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="24"/>
       <c r="B67" s="12"/>
       <c r="C67" s="14"/>
@@ -5133,7 +5147,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="24"/>
       <c r="B68" s="12"/>
       <c r="C68" s="14"/>
@@ -5146,7 +5160,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="24"/>
       <c r="B69" s="12"/>
       <c r="C69" s="14"/>
@@ -5159,7 +5173,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="24"/>
       <c r="B70" s="13"/>
       <c r="C70" s="14"/>
@@ -5172,7 +5186,7 @@
       <c r="J70" s="13"/>
       <c r="K70" s="16"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="24"/>
       <c r="B71" s="13"/>
       <c r="C71" s="14"/>
@@ -5185,7 +5199,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="21"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="24"/>
       <c r="B72" s="13"/>
       <c r="C72" s="14"/>
@@ -5198,7 +5212,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="21"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="24"/>
       <c r="B73" s="13"/>
       <c r="C73" s="14"/>
@@ -5211,7 +5225,7 @@
       <c r="J73" s="12"/>
       <c r="K73" s="21"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="24"/>
       <c r="B74" s="13"/>
       <c r="C74" s="14"/>
@@ -5224,7 +5238,7 @@
       <c r="J74" s="12"/>
       <c r="K74" s="21"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="24"/>
       <c r="B75" s="13"/>
       <c r="C75" s="14"/>
@@ -5237,7 +5251,7 @@
       <c r="J75" s="12"/>
       <c r="K75" s="21"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="24"/>
       <c r="B76" s="13"/>
       <c r="C76" s="14"/>
@@ -5250,7 +5264,7 @@
       <c r="J76" s="12"/>
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="24"/>
       <c r="B77" s="13"/>
       <c r="C77" s="14"/>
@@ -5263,7 +5277,7 @@
       <c r="J77" s="12"/>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="24"/>
       <c r="B78" s="13"/>
       <c r="C78" s="14"/>
@@ -5276,7 +5290,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="24"/>
       <c r="B79" s="13"/>
       <c r="C79" s="14"/>
@@ -5289,7 +5303,7 @@
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="24"/>
       <c r="B80" s="13"/>
       <c r="C80" s="14"/>
@@ -5305,7 +5319,7 @@
       <c r="J80" s="12"/>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="24"/>
       <c r="B81" s="13"/>
       <c r="C81" s="14"/>
@@ -5321,7 +5335,7 @@
       <c r="J81" s="13"/>
       <c r="K81" s="16"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="24"/>
       <c r="B82" s="12"/>
       <c r="C82" s="14"/>
@@ -5337,7 +5351,7 @@
       <c r="J82" s="12"/>
       <c r="K82" s="21"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="24"/>
       <c r="B83" s="12"/>
       <c r="C83" s="14"/>
@@ -5353,7 +5367,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="24"/>
       <c r="B84" s="12"/>
       <c r="C84" s="14"/>
@@ -5369,7 +5383,7 @@
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="24"/>
       <c r="B85" s="12"/>
       <c r="C85" s="14"/>
@@ -5385,7 +5399,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="24"/>
       <c r="B86" s="13"/>
       <c r="C86" s="14"/>
@@ -5416,10 +5430,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5442,28 +5456,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="54" t="s">
         <v>33</v>
       </c>
@@ -5476,7 +5490,7 @@
       <c r="K1" s="55"/>
       <c r="L1" s="55"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
@@ -5505,7 +5519,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="38">
         <v>117.661</v>
       </c>
@@ -5529,7 +5543,7 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E4" s="1" t="str">
         <f>IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2))</f>
         <v/>
@@ -5544,10 +5558,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="35" t="s">
         <v>28</v>
       </c>
@@ -5567,7 +5581,7 @@
       <c r="K6" s="56"/>
       <c r="L6" s="56"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -5593,7 +5607,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -5619,7 +5633,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -5645,7 +5659,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -5671,7 +5685,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -5697,7 +5711,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -5723,7 +5737,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -5749,7 +5763,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -5775,7 +5789,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -5795,7 +5809,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -5815,7 +5829,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -5835,7 +5849,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -5856,7 +5870,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -5877,7 +5891,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -5898,7 +5912,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -5919,7 +5933,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -5940,7 +5954,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -5961,7 +5975,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -5982,7 +5996,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -6003,7 +6017,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -6024,7 +6038,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -6045,7 +6059,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -6066,7 +6080,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -6087,7 +6101,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -6108,7 +6122,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -6129,7 +6143,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -6150,7 +6164,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -6171,7 +6185,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -6192,7 +6206,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -6213,7 +6227,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -6234,7 +6248,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -6255,7 +6269,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -6264,7 +6278,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -6273,7 +6287,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -6282,7 +6296,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -6291,7 +6305,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -6300,7 +6314,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -6309,7 +6323,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -6318,7 +6332,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -6327,7 +6341,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -6336,7 +6350,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -6345,7 +6359,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -6354,7 +6368,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -6363,7 +6377,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -6372,7 +6386,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -6381,7 +6395,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -6390,7 +6404,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -6399,7 +6413,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -6408,7 +6422,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -6417,7 +6431,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -6426,7 +6440,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -6435,7 +6449,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -6444,7 +6458,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -6453,7 +6467,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -6462,7 +6476,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -6471,7 +6485,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -6480,7 +6494,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -6489,7 +6503,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -6498,7 +6512,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -6507,7 +6521,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -6516,7 +6530,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/GONZALES, MARIO.xlsx
+++ b/NEW HR/GONZALES, MARIO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D58C35-87BA-4D93-90DD-4EEA89437167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813D3154-D631-4BAE-AD90-F52E6F7E4DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="48" windowWidth="23016" windowHeight="12312" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="81">
   <si>
     <t>PERIOD</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>6/23,26/2023</t>
+  </si>
+  <si>
+    <t>7/6,7/2023</t>
   </si>
 </sst>
 </file>
@@ -1552,7 +1555,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3696" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="D8" sqref="D8"/>
-      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
+      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1713,7 +1716,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>56.25</v>
+        <v>57.5</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1723,7 +1726,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>81.25</v>
+        <v>82.5</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3222,13 +3225,15 @@
         <v>45078</v>
       </c>
       <c r="B82" s="12"/>
-      <c r="C82" s="14"/>
+      <c r="C82" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="12"/>
       <c r="E82" s="9"/>
       <c r="F82" s="12"/>
-      <c r="G82" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="12"/>
       <c r="I82" s="9"/>
@@ -3809,7 +3814,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3696" topLeftCell="A49" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
+      <selection pane="bottomLeft" activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3970,7 +3975,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>113.661</v>
+        <v>112.661</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -3980,7 +3985,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>126.25</v>
+        <v>125.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -5018,30 +5023,46 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="24"/>
-      <c r="B58" s="12"/>
+      <c r="A58" s="24">
+        <v>45110</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="C58" s="14"/>
       <c r="D58" s="12"/>
       <c r="E58" s="9"/>
       <c r="F58" s="12"/>
       <c r="G58" s="14"/>
-      <c r="H58" s="12"/>
+      <c r="H58" s="12">
+        <v>1</v>
+      </c>
       <c r="I58" s="9"/>
       <c r="J58" s="12"/>
-      <c r="K58" s="21"/>
+      <c r="K58" s="39">
+        <v>45107</v>
+      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="24"/>
-      <c r="B59" s="12"/>
+      <c r="A59" s="24">
+        <v>45106</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="C59" s="14"/>
-      <c r="D59" s="12"/>
+      <c r="D59" s="12">
+        <v>1</v>
+      </c>
       <c r="E59" s="9"/>
       <c r="F59" s="12"/>
       <c r="G59" s="14"/>
       <c r="H59" s="12"/>
       <c r="I59" s="9"/>
       <c r="J59" s="12"/>
-      <c r="K59" s="21"/>
+      <c r="K59" s="21" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="24"/>

--- a/NEW HR/GONZALES, MARIO.xlsx
+++ b/NEW HR/GONZALES, MARIO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813D3154-D631-4BAE-AD90-F52E6F7E4DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC211A9D-4967-45D6-A750-2A6A486CF070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="82">
   <si>
     <t>PERIOD</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>7/6,7/2023</t>
+  </si>
+  <si>
+    <t>7/13,14/2023</t>
   </si>
 </sst>
 </file>
@@ -643,14 +646,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -660,9 +666,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1585,14 +1588,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
@@ -1603,14 +1606,14 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="48"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
@@ -1623,16 +1626,16 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="48"/>
+      <c r="G4" s="47"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="48"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
@@ -1658,18 +1661,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3766,17 +3769,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -3812,9 +3815,9 @@
   <dimension ref="A2:K86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A49" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A55" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="A60" sqref="A60"/>
+      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3844,14 +3847,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
@@ -3862,14 +3865,14 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="48"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
@@ -3882,16 +3885,16 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="48"/>
+      <c r="G4" s="47"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="48"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
@@ -3917,18 +3920,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3975,7 +3978,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>112.661</v>
+        <v>110.661</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -5065,17 +5068,25 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="24"/>
-      <c r="B60" s="12"/>
+      <c r="A60" s="24">
+        <v>45112</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="C60" s="14"/>
-      <c r="D60" s="12"/>
+      <c r="D60" s="12">
+        <v>2</v>
+      </c>
       <c r="E60" s="9"/>
       <c r="F60" s="12"/>
       <c r="G60" s="14"/>
       <c r="H60" s="12"/>
       <c r="I60" s="9"/>
       <c r="J60" s="12"/>
-      <c r="K60" s="21"/>
+      <c r="K60" s="21" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="24"/>

--- a/NEW HR/GONZALES, MARIO.xlsx
+++ b/NEW HR/GONZALES, MARIO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC211A9D-4967-45D6-A750-2A6A486CF070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="3" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="83">
   <si>
     <t>PERIOD</t>
   </si>
@@ -283,12 +282,15 @@
   </si>
   <si>
     <t>7/13,14/2023</t>
+  </si>
+  <si>
+    <t>7/27-28/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -646,17 +648,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -666,6 +665,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1177,7 +1179,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1194,25 +1196,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K112" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K112" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1224,25 +1226,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K86" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K86" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1549,34 +1551,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K112"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A73" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="D8" sqref="D8"/>
       <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1588,16 +1590,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="48"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1606,16 +1608,16 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="47"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="51"/>
+      <c r="K3" s="52"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -1626,18 +1628,18 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="47"/>
+      <c r="G4" s="48"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="48"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="48"/>
+      <c r="K4" s="49"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -1645,7 +1647,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -1658,24 +1660,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1710,7 +1712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1734,7 +1736,7 @@
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
         <v>43</v>
       </c>
@@ -1756,7 +1758,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>43101</v>
       </c>
@@ -1776,7 +1778,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="39"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>43132</v>
       </c>
@@ -1796,7 +1798,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="39"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>43160</v>
       </c>
@@ -1816,7 +1818,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>43191</v>
       </c>
@@ -1836,7 +1838,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>43221</v>
       </c>
@@ -1856,7 +1858,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>43252</v>
       </c>
@@ -1882,7 +1884,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>43282</v>
       </c>
@@ -1902,7 +1904,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="39"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>43313</v>
       </c>
@@ -1922,7 +1924,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="39"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>43344</v>
       </c>
@@ -1948,7 +1950,7 @@
         <v>43371</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>43374</v>
       </c>
@@ -1968,7 +1970,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>43405</v>
       </c>
@@ -1988,7 +1990,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>43435</v>
       </c>
@@ -2012,7 +2014,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
         <v>50</v>
       </c>
@@ -2030,7 +2032,7 @@
       <c r="J23" s="12"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>43466</v>
       </c>
@@ -2050,7 +2052,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>43497</v>
       </c>
@@ -2070,7 +2072,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>43525</v>
       </c>
@@ -2096,7 +2098,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>43556</v>
       </c>
@@ -2116,7 +2118,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>43586</v>
       </c>
@@ -2136,7 +2138,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>43617</v>
       </c>
@@ -2156,7 +2158,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>43647</v>
       </c>
@@ -2176,7 +2178,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>43678</v>
       </c>
@@ -2196,7 +2198,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>43709</v>
       </c>
@@ -2216,7 +2218,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="39"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>43739</v>
       </c>
@@ -2236,7 +2238,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <v>43770</v>
       </c>
@@ -2256,7 +2258,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>43800</v>
       </c>
@@ -2280,7 +2282,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="37" t="s">
         <v>54</v>
       </c>
@@ -2298,7 +2300,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>43831</v>
       </c>
@@ -2318,7 +2320,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
         <v>43862</v>
       </c>
@@ -2338,7 +2340,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="39"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <v>43891</v>
       </c>
@@ -2358,7 +2360,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="39"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>43922</v>
       </c>
@@ -2378,7 +2380,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>43952</v>
       </c>
@@ -2398,7 +2400,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <v>43983</v>
       </c>
@@ -2418,7 +2420,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <v>44013</v>
       </c>
@@ -2438,7 +2440,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <v>44044</v>
       </c>
@@ -2458,7 +2460,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="39"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <v>44075</v>
       </c>
@@ -2478,7 +2480,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="39"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
         <v>44105</v>
       </c>
@@ -2498,7 +2500,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>44136</v>
       </c>
@@ -2518,7 +2520,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
         <v>44166</v>
       </c>
@@ -2542,7 +2544,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="37" t="s">
         <v>57</v>
       </c>
@@ -2560,7 +2562,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="24">
         <v>44197</v>
       </c>
@@ -2580,7 +2582,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="39"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <v>44228</v>
       </c>
@@ -2600,7 +2602,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <v>44256</v>
       </c>
@@ -2620,7 +2622,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="24">
         <v>44287</v>
       </c>
@@ -2640,7 +2642,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
         <v>44317</v>
       </c>
@@ -2660,7 +2662,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
         <v>44348</v>
       </c>
@@ -2680,7 +2682,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
         <v>44378</v>
       </c>
@@ -2700,7 +2702,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="39"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="24">
         <v>44409</v>
       </c>
@@ -2720,7 +2722,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <v>44440</v>
       </c>
@@ -2740,7 +2742,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <v>44470</v>
       </c>
@@ -2760,7 +2762,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="39"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
         <v>44501</v>
       </c>
@@ -2786,7 +2788,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="24">
         <v>44531</v>
       </c>
@@ -2806,7 +2808,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="39"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="37" t="s">
         <v>35</v>
       </c>
@@ -2824,7 +2826,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="24">
         <v>44562</v>
       </c>
@@ -2844,7 +2846,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="24">
         <v>44593</v>
       </c>
@@ -2870,7 +2872,7 @@
         <v>44601</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="24"/>
       <c r="B65" s="12" t="s">
         <v>38</v>
@@ -2892,7 +2894,7 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="24">
         <v>44621</v>
       </c>
@@ -2912,7 +2914,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="24">
         <f>EDATE(A66,1)</f>
         <v>44652</v>
@@ -2933,7 +2935,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="24">
         <f t="shared" ref="A68:A71" si="0">EDATE(A67,1)</f>
         <v>44682</v>
@@ -2954,7 +2956,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="24">
         <f t="shared" si="0"/>
         <v>44713</v>
@@ -2975,7 +2977,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="24">
         <f t="shared" si="0"/>
         <v>44743</v>
@@ -2996,7 +2998,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="24">
         <f t="shared" si="0"/>
         <v>44774</v>
@@ -3017,7 +3019,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="39"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="24">
         <f>EDATE(A71,1)</f>
         <v>44805</v>
@@ -3038,7 +3040,7 @@
       <c r="J72" s="13"/>
       <c r="K72" s="16"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="24">
         <f>EDATE(A72,1)</f>
         <v>44835</v>
@@ -3065,7 +3067,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="24">
         <v>44866</v>
       </c>
@@ -3085,7 +3087,7 @@
       <c r="J74" s="12"/>
       <c r="K74" s="21"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="24">
         <v>44896</v>
       </c>
@@ -3105,7 +3107,7 @@
       <c r="J75" s="12"/>
       <c r="K75" s="21"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="37" t="s">
         <v>75</v>
       </c>
@@ -3123,7 +3125,7 @@
       <c r="J76" s="12"/>
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="24">
         <v>44927</v>
       </c>
@@ -3143,7 +3145,7 @@
       <c r="J77" s="12"/>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="24">
         <v>44958</v>
       </c>
@@ -3163,7 +3165,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="24">
         <v>44986</v>
       </c>
@@ -3183,7 +3185,7 @@
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="24">
         <v>45017</v>
       </c>
@@ -3203,7 +3205,7 @@
       <c r="J80" s="12"/>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="24">
         <v>45047</v>
       </c>
@@ -3223,7 +3225,7 @@
       <c r="J81" s="12"/>
       <c r="K81" s="21"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="24">
         <v>45078</v>
       </c>
@@ -3243,7 +3245,7 @@
       <c r="J82" s="12"/>
       <c r="K82" s="21"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="24">
         <v>45108</v>
       </c>
@@ -3261,7 +3263,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="24">
         <v>45139</v>
       </c>
@@ -3279,7 +3281,7 @@
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="24">
         <v>45170</v>
       </c>
@@ -3297,7 +3299,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="24">
         <v>45200</v>
       </c>
@@ -3315,7 +3317,7 @@
       <c r="J86" s="12"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="24">
         <v>45231</v>
       </c>
@@ -3333,7 +3335,7 @@
       <c r="J87" s="12"/>
       <c r="K87" s="21"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="24">
         <v>45261</v>
       </c>
@@ -3351,7 +3353,7 @@
       <c r="J88" s="12"/>
       <c r="K88" s="21"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="24">
         <v>45292</v>
       </c>
@@ -3369,7 +3371,7 @@
       <c r="J89" s="12"/>
       <c r="K89" s="21"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="24">
         <v>45323</v>
       </c>
@@ -3387,7 +3389,7 @@
       <c r="J90" s="12"/>
       <c r="K90" s="21"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="24">
         <v>45352</v>
       </c>
@@ -3405,7 +3407,7 @@
       <c r="J91" s="12"/>
       <c r="K91" s="21"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="24">
         <v>45383</v>
       </c>
@@ -3423,7 +3425,7 @@
       <c r="J92" s="12"/>
       <c r="K92" s="21"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="24">
         <v>45413</v>
       </c>
@@ -3441,7 +3443,7 @@
       <c r="J93" s="12"/>
       <c r="K93" s="21"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="24">
         <v>45444</v>
       </c>
@@ -3459,7 +3461,7 @@
       <c r="J94" s="12"/>
       <c r="K94" s="21"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="24">
         <v>45474</v>
       </c>
@@ -3477,7 +3479,7 @@
       <c r="J95" s="12"/>
       <c r="K95" s="21"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="24">
         <v>45505</v>
       </c>
@@ -3495,7 +3497,7 @@
       <c r="J96" s="13"/>
       <c r="K96" s="16"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="24">
         <v>45536</v>
       </c>
@@ -3513,7 +3515,7 @@
       <c r="J97" s="12"/>
       <c r="K97" s="21"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="24">
         <v>45566</v>
       </c>
@@ -3531,7 +3533,7 @@
       <c r="J98" s="12"/>
       <c r="K98" s="21"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="24">
         <v>45597</v>
       </c>
@@ -3549,7 +3551,7 @@
       <c r="J99" s="12"/>
       <c r="K99" s="21"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="24">
         <v>45627</v>
       </c>
@@ -3567,7 +3569,7 @@
       <c r="J100" s="12"/>
       <c r="K100" s="21"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="24">
         <v>45658</v>
       </c>
@@ -3585,7 +3587,7 @@
       <c r="J101" s="12"/>
       <c r="K101" s="21"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="24">
         <v>45689</v>
       </c>
@@ -3603,7 +3605,7 @@
       <c r="J102" s="12"/>
       <c r="K102" s="21"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="24">
         <v>45717</v>
       </c>
@@ -3621,7 +3623,7 @@
       <c r="J103" s="12"/>
       <c r="K103" s="21"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="24">
         <v>45748</v>
       </c>
@@ -3639,7 +3641,7 @@
       <c r="J104" s="12"/>
       <c r="K104" s="21"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="24"/>
       <c r="B105" s="13"/>
       <c r="C105" s="14"/>
@@ -3655,7 +3657,7 @@
       <c r="J105" s="12"/>
       <c r="K105" s="21"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="24"/>
       <c r="B106" s="13"/>
       <c r="C106" s="14"/>
@@ -3671,7 +3673,7 @@
       <c r="J106" s="12"/>
       <c r="K106" s="21"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="24"/>
       <c r="B107" s="13"/>
       <c r="C107" s="14"/>
@@ -3687,7 +3689,7 @@
       <c r="J107" s="13"/>
       <c r="K107" s="16"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="24"/>
       <c r="B108" s="12"/>
       <c r="C108" s="14"/>
@@ -3703,7 +3705,7 @@
       <c r="J108" s="12"/>
       <c r="K108" s="21"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="24"/>
       <c r="B109" s="12"/>
       <c r="C109" s="14"/>
@@ -3719,7 +3721,7 @@
       <c r="J109" s="12"/>
       <c r="K109" s="21"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="24"/>
       <c r="B110" s="12"/>
       <c r="C110" s="14"/>
@@ -3735,7 +3737,7 @@
       <c r="J110" s="12"/>
       <c r="K110" s="21"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="24"/>
       <c r="B111" s="12"/>
       <c r="C111" s="14"/>
@@ -3751,7 +3753,7 @@
       <c r="J111" s="12"/>
       <c r="K111" s="21"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="24"/>
       <c r="B112" s="13"/>
       <c r="C112" s="14"/>
@@ -3769,23 +3771,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3808,34 +3810,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A55" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
+      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -3847,16 +3849,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="48"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -3865,16 +3867,16 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="47"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="51"/>
+      <c r="K3" s="52"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -3885,18 +3887,18 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="47"/>
+      <c r="G4" s="48"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="48"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="48"/>
+      <c r="K4" s="49"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -3904,7 +3906,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -3917,24 +3919,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3969,7 +3971,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -3978,7 +3980,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>110.661</v>
+        <v>108.661</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -3993,7 +3995,7 @@
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
         <v>43</v>
       </c>
@@ -4015,7 +4017,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>43101</v>
       </c>
@@ -4037,7 +4039,7 @@
         <v>43130</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="21" t="s">
         <v>44</v>
@@ -4059,7 +4061,7 @@
         <v>43144</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>43132</v>
       </c>
@@ -4083,7 +4085,7 @@
         <v>43179</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>43252</v>
       </c>
@@ -4107,7 +4109,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>43282</v>
       </c>
@@ -4129,7 +4131,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="21" t="s">
         <v>44</v>
@@ -4151,7 +4153,7 @@
         <v>43308</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>43313</v>
       </c>
@@ -4175,7 +4177,7 @@
         <v>43334</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>43344</v>
       </c>
@@ -4199,7 +4201,7 @@
         <v>43350</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="21" t="s">
         <v>44</v>
@@ -4219,7 +4221,7 @@
         <v>43370</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>50</v>
       </c>
@@ -4237,7 +4239,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>43525</v>
       </c>
@@ -4259,7 +4261,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>43709</v>
       </c>
@@ -4283,7 +4285,7 @@
         <v>43673</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>43800</v>
       </c>
@@ -4305,7 +4307,7 @@
         <v>43809</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="37" t="s">
         <v>54</v>
       </c>
@@ -4323,7 +4325,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>43831</v>
       </c>
@@ -4341,7 +4343,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>43862</v>
       </c>
@@ -4363,7 +4365,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="24"/>
       <c r="B27" s="21" t="s">
         <v>55</v>
@@ -4383,7 +4385,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>43891</v>
       </c>
@@ -4405,7 +4407,7 @@
         <v>43902</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>44044</v>
       </c>
@@ -4427,7 +4429,7 @@
         <v>44057</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>44075</v>
       </c>
@@ -4451,7 +4453,7 @@
         <v>44088</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>44166</v>
       </c>
@@ -4475,7 +4477,7 @@
         <v>44193</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="37" t="s">
         <v>57</v>
       </c>
@@ -4493,7 +4495,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>44197</v>
       </c>
@@ -4517,7 +4519,7 @@
         <v>44204</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="24"/>
       <c r="B34" s="21" t="s">
         <v>39</v>
@@ -4537,7 +4539,7 @@
         <v>44225</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>44256</v>
       </c>
@@ -4559,7 +4561,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
         <v>44378</v>
       </c>
@@ -4583,7 +4585,7 @@
         <v>44378</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>44470</v>
       </c>
@@ -4607,7 +4609,7 @@
         <v>44491</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
       <c r="B38" s="21" t="s">
         <v>44</v>
@@ -4629,7 +4631,7 @@
         <v>44496</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="24"/>
       <c r="B39" s="21" t="s">
         <v>44</v>
@@ -4651,7 +4653,7 @@
         <v>44498</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>44501</v>
       </c>
@@ -4675,7 +4677,7 @@
         <v>44519</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="37" t="s">
         <v>35</v>
       </c>
@@ -4693,7 +4695,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <v>44562</v>
       </c>
@@ -4715,7 +4717,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <v>44593</v>
       </c>
@@ -4737,7 +4739,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <v>44774</v>
       </c>
@@ -4761,7 +4763,7 @@
         <v>44795</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="24"/>
       <c r="B45" s="21" t="s">
         <v>47</v>
@@ -4783,7 +4785,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="24"/>
       <c r="B46" s="21" t="s">
         <v>47</v>
@@ -4805,7 +4807,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>44805</v>
       </c>
@@ -4829,7 +4831,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="24"/>
       <c r="B48" s="21" t="s">
         <v>44</v>
@@ -4851,7 +4853,7 @@
         <v>44823</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="24"/>
       <c r="B49" s="21" t="s">
         <v>44</v>
@@ -4873,7 +4875,7 @@
         <v>44806</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="37" t="s">
         <v>75</v>
       </c>
@@ -4888,7 +4890,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <v>44927</v>
       </c>
@@ -4907,7 +4909,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <v>45017</v>
       </c>
@@ -4928,7 +4930,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="24"/>
       <c r="B53" s="12" t="s">
         <v>45</v>
@@ -4947,7 +4949,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="24"/>
       <c r="B54" s="12" t="s">
         <v>77</v>
@@ -4966,7 +4968,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
         <v>45047</v>
       </c>
@@ -4985,7 +4987,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
         <v>45078</v>
       </c>
@@ -5004,7 +5006,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="24">
         <v>45104</v>
       </c>
@@ -5025,7 +5027,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <v>45110</v>
       </c>
@@ -5046,7 +5048,7 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <v>45106</v>
       </c>
@@ -5067,7 +5069,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
         <v>45112</v>
       </c>
@@ -5088,20 +5090,26 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="24"/>
-      <c r="B61" s="12"/>
+      <c r="B61" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="C61" s="14"/>
-      <c r="D61" s="12"/>
+      <c r="D61" s="12">
+        <v>2</v>
+      </c>
       <c r="E61" s="9"/>
       <c r="F61" s="12"/>
       <c r="G61" s="14"/>
       <c r="H61" s="12"/>
       <c r="I61" s="9"/>
       <c r="J61" s="12"/>
-      <c r="K61" s="21"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K61" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="24"/>
       <c r="B62" s="12"/>
       <c r="C62" s="14"/>
@@ -5114,7 +5122,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="24"/>
       <c r="B63" s="12"/>
       <c r="C63" s="14"/>
@@ -5127,7 +5135,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="24"/>
       <c r="B64" s="12"/>
       <c r="C64" s="14"/>
@@ -5140,7 +5148,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="24"/>
       <c r="B65" s="12"/>
       <c r="C65" s="14"/>
@@ -5153,7 +5161,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="24"/>
       <c r="B66" s="12"/>
       <c r="C66" s="14"/>
@@ -5166,7 +5174,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="24"/>
       <c r="B67" s="12"/>
       <c r="C67" s="14"/>
@@ -5179,7 +5187,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="24"/>
       <c r="B68" s="12"/>
       <c r="C68" s="14"/>
@@ -5192,7 +5200,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="24"/>
       <c r="B69" s="12"/>
       <c r="C69" s="14"/>
@@ -5205,7 +5213,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="24"/>
       <c r="B70" s="13"/>
       <c r="C70" s="14"/>
@@ -5218,7 +5226,7 @@
       <c r="J70" s="13"/>
       <c r="K70" s="16"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="24"/>
       <c r="B71" s="13"/>
       <c r="C71" s="14"/>
@@ -5231,7 +5239,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="21"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="24"/>
       <c r="B72" s="13"/>
       <c r="C72" s="14"/>
@@ -5244,7 +5252,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="21"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="24"/>
       <c r="B73" s="13"/>
       <c r="C73" s="14"/>
@@ -5257,7 +5265,7 @@
       <c r="J73" s="12"/>
       <c r="K73" s="21"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="24"/>
       <c r="B74" s="13"/>
       <c r="C74" s="14"/>
@@ -5270,7 +5278,7 @@
       <c r="J74" s="12"/>
       <c r="K74" s="21"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="24"/>
       <c r="B75" s="13"/>
       <c r="C75" s="14"/>
@@ -5283,7 +5291,7 @@
       <c r="J75" s="12"/>
       <c r="K75" s="21"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="24"/>
       <c r="B76" s="13"/>
       <c r="C76" s="14"/>
@@ -5296,7 +5304,7 @@
       <c r="J76" s="12"/>
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="24"/>
       <c r="B77" s="13"/>
       <c r="C77" s="14"/>
@@ -5309,7 +5317,7 @@
       <c r="J77" s="12"/>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="24"/>
       <c r="B78" s="13"/>
       <c r="C78" s="14"/>
@@ -5322,7 +5330,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="24"/>
       <c r="B79" s="13"/>
       <c r="C79" s="14"/>
@@ -5335,7 +5343,7 @@
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="24"/>
       <c r="B80" s="13"/>
       <c r="C80" s="14"/>
@@ -5351,7 +5359,7 @@
       <c r="J80" s="12"/>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="24"/>
       <c r="B81" s="13"/>
       <c r="C81" s="14"/>
@@ -5367,7 +5375,7 @@
       <c r="J81" s="13"/>
       <c r="K81" s="16"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="24"/>
       <c r="B82" s="12"/>
       <c r="C82" s="14"/>
@@ -5383,7 +5391,7 @@
       <c r="J82" s="12"/>
       <c r="K82" s="21"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="24"/>
       <c r="B83" s="12"/>
       <c r="C83" s="14"/>
@@ -5399,7 +5407,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="24"/>
       <c r="B84" s="12"/>
       <c r="C84" s="14"/>
@@ -5415,7 +5423,7 @@
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="24"/>
       <c r="B85" s="12"/>
       <c r="C85" s="14"/>
@@ -5431,7 +5439,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="24"/>
       <c r="B86" s="13"/>
       <c r="C86" s="14"/>
@@ -5462,10 +5470,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5488,28 +5496,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="54" t="s">
         <v>33</v>
       </c>
@@ -5522,7 +5530,7 @@
       <c r="K1" s="55"/>
       <c r="L1" s="55"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
@@ -5551,7 +5559,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="38">
         <v>117.661</v>
       </c>
@@ -5575,7 +5583,7 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" s="1" t="str">
         <f>IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2))</f>
         <v/>
@@ -5590,10 +5598,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="35" t="s">
         <v>28</v>
       </c>
@@ -5613,7 +5621,7 @@
       <c r="K6" s="56"/>
       <c r="L6" s="56"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -5639,7 +5647,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -5665,7 +5673,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -5691,7 +5699,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -5717,7 +5725,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -5743,7 +5751,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -5769,7 +5777,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -5795,7 +5803,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -5821,7 +5829,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -5841,7 +5849,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -5861,7 +5869,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -5881,7 +5889,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -5902,7 +5910,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -5923,7 +5931,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -5944,7 +5952,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -5965,7 +5973,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -5986,7 +5994,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -6007,7 +6015,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -6028,7 +6036,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -6049,7 +6057,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -6070,7 +6078,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -6091,7 +6099,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -6112,7 +6120,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -6133,7 +6141,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -6154,7 +6162,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -6175,7 +6183,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -6196,7 +6204,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -6217,7 +6225,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -6238,7 +6246,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -6259,7 +6267,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -6280,7 +6288,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -6301,7 +6309,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -6310,7 +6318,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -6319,7 +6327,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -6328,7 +6336,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -6337,7 +6345,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -6346,7 +6354,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -6355,7 +6363,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -6364,7 +6372,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -6373,7 +6381,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -6382,7 +6390,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -6391,7 +6399,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -6400,7 +6408,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -6409,7 +6417,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -6418,7 +6426,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -6427,7 +6435,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -6436,7 +6444,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -6445,7 +6453,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -6454,7 +6462,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -6463,7 +6471,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -6472,7 +6480,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -6481,7 +6489,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -6490,7 +6498,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -6499,7 +6507,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -6508,7 +6516,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -6517,7 +6525,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -6526,7 +6534,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -6535,7 +6543,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -6544,7 +6552,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -6553,7 +6561,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -6562,7 +6570,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/GONZALES, MARIO.xlsx
+++ b/NEW HR/GONZALES, MARIO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4A6752-F308-433D-A857-73A839DDDC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="3" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="85">
   <si>
     <t>PERIOD</t>
   </si>
@@ -285,12 +286,18 @@
   </si>
   <si>
     <t>7/27-28/2023</t>
+  </si>
+  <si>
+    <t>7/20,21/2023</t>
+  </si>
+  <si>
+    <t>8/3,4/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -648,14 +655,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -665,9 +675,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1179,7 +1186,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1196,25 +1203,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K112" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K112" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1226,25 +1233,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K86" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K86" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1551,34 +1558,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K112"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A73" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="D8" sqref="D8"/>
-      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
+      <selection pane="bottomLeft" activeCell="C82" sqref="C82:C83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1590,16 +1597,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="47"/>
+      <c r="K2" s="48"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1608,16 +1615,16 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="48"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="52"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -1628,18 +1635,18 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="48"/>
+      <c r="G4" s="47"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="47"/>
+      <c r="K4" s="48"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -1647,7 +1654,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -1660,24 +1667,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1712,7 +1719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1721,7 +1728,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>57.5</v>
+        <v>58.75</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1731,12 +1738,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>82.5</v>
+        <v>83.75</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
         <v>43</v>
       </c>
@@ -1758,7 +1765,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>43101</v>
       </c>
@@ -1778,7 +1785,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="39"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <v>43132</v>
       </c>
@@ -1798,7 +1805,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="39"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>43160</v>
       </c>
@@ -1818,7 +1825,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>43191</v>
       </c>
@@ -1838,7 +1845,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <v>43221</v>
       </c>
@@ -1858,7 +1865,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>43252</v>
       </c>
@@ -1884,7 +1891,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>43282</v>
       </c>
@@ -1904,7 +1911,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="39"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>43313</v>
       </c>
@@ -1924,7 +1931,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="39"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <v>43344</v>
       </c>
@@ -1950,7 +1957,7 @@
         <v>43371</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24">
         <v>43374</v>
       </c>
@@ -1970,7 +1977,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="24">
         <v>43405</v>
       </c>
@@ -1990,7 +1997,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="24">
         <v>43435</v>
       </c>
@@ -2014,7 +2021,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="37" t="s">
         <v>50</v>
       </c>
@@ -2032,7 +2039,7 @@
       <c r="J23" s="12"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="24">
         <v>43466</v>
       </c>
@@ -2052,7 +2059,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="24">
         <v>43497</v>
       </c>
@@ -2072,7 +2079,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="24">
         <v>43525</v>
       </c>
@@ -2098,7 +2105,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <v>43556</v>
       </c>
@@ -2118,7 +2125,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="24">
         <v>43586</v>
       </c>
@@ -2138,7 +2145,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="24">
         <v>43617</v>
       </c>
@@ -2158,7 +2165,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="24">
         <v>43647</v>
       </c>
@@ -2178,7 +2185,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="24">
         <v>43678</v>
       </c>
@@ -2198,7 +2205,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="24">
         <v>43709</v>
       </c>
@@ -2218,7 +2225,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="39"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="24">
         <v>43739</v>
       </c>
@@ -2238,7 +2245,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="24">
         <v>43770</v>
       </c>
@@ -2258,7 +2265,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="24">
         <v>43800</v>
       </c>
@@ -2282,7 +2289,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="37" t="s">
         <v>54</v>
       </c>
@@ -2300,7 +2307,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="24">
         <v>43831</v>
       </c>
@@ -2320,7 +2327,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="24">
         <v>43862</v>
       </c>
@@ -2340,7 +2347,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="39"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="24">
         <v>43891</v>
       </c>
@@ -2360,7 +2367,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="39"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="24">
         <v>43922</v>
       </c>
@@ -2380,7 +2387,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="24">
         <v>43952</v>
       </c>
@@ -2400,7 +2407,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="24">
         <v>43983</v>
       </c>
@@ -2420,7 +2427,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="24">
         <v>44013</v>
       </c>
@@ -2440,7 +2447,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="24">
         <v>44044</v>
       </c>
@@ -2460,7 +2467,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="39"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="24">
         <v>44075</v>
       </c>
@@ -2480,7 +2487,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="39"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="24">
         <v>44105</v>
       </c>
@@ -2500,7 +2507,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="24">
         <v>44136</v>
       </c>
@@ -2520,7 +2527,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="24">
         <v>44166</v>
       </c>
@@ -2544,7 +2551,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="37" t="s">
         <v>57</v>
       </c>
@@ -2562,7 +2569,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="24">
         <v>44197</v>
       </c>
@@ -2582,7 +2589,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="39"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="24">
         <v>44228</v>
       </c>
@@ -2602,7 +2609,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="24">
         <v>44256</v>
       </c>
@@ -2622,7 +2629,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="24">
         <v>44287</v>
       </c>
@@ -2642,7 +2649,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="24">
         <v>44317</v>
       </c>
@@ -2662,7 +2669,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="24">
         <v>44348</v>
       </c>
@@ -2682,7 +2689,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="24">
         <v>44378</v>
       </c>
@@ -2702,7 +2709,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="39"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="24">
         <v>44409</v>
       </c>
@@ -2722,7 +2729,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="24">
         <v>44440</v>
       </c>
@@ -2742,7 +2749,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="24">
         <v>44470</v>
       </c>
@@ -2762,7 +2769,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="39"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="24">
         <v>44501</v>
       </c>
@@ -2788,7 +2795,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="24">
         <v>44531</v>
       </c>
@@ -2808,7 +2815,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="39"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="37" t="s">
         <v>35</v>
       </c>
@@ -2826,7 +2833,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="24">
         <v>44562</v>
       </c>
@@ -2846,7 +2853,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="24">
         <v>44593</v>
       </c>
@@ -2872,7 +2879,7 @@
         <v>44601</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="24"/>
       <c r="B65" s="12" t="s">
         <v>38</v>
@@ -2894,7 +2901,7 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="24">
         <v>44621</v>
       </c>
@@ -2914,7 +2921,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="24">
         <f>EDATE(A66,1)</f>
         <v>44652</v>
@@ -2935,7 +2942,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="24">
         <f t="shared" ref="A68:A71" si="0">EDATE(A67,1)</f>
         <v>44682</v>
@@ -2956,7 +2963,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="24">
         <f t="shared" si="0"/>
         <v>44713</v>
@@ -2977,7 +2984,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="24">
         <f t="shared" si="0"/>
         <v>44743</v>
@@ -2998,7 +3005,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="24">
         <f t="shared" si="0"/>
         <v>44774</v>
@@ -3019,7 +3026,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="39"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="24">
         <f>EDATE(A71,1)</f>
         <v>44805</v>
@@ -3040,7 +3047,7 @@
       <c r="J72" s="13"/>
       <c r="K72" s="16"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="24">
         <f>EDATE(A72,1)</f>
         <v>44835</v>
@@ -3067,7 +3074,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="24">
         <v>44866</v>
       </c>
@@ -3087,7 +3094,7 @@
       <c r="J74" s="12"/>
       <c r="K74" s="21"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="24">
         <v>44896</v>
       </c>
@@ -3107,7 +3114,7 @@
       <c r="J75" s="12"/>
       <c r="K75" s="21"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="37" t="s">
         <v>75</v>
       </c>
@@ -3125,7 +3132,7 @@
       <c r="J76" s="12"/>
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="24">
         <v>44927</v>
       </c>
@@ -3145,7 +3152,7 @@
       <c r="J77" s="12"/>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="24">
         <v>44958</v>
       </c>
@@ -3165,7 +3172,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="24">
         <v>44986</v>
       </c>
@@ -3185,7 +3192,7 @@
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="24">
         <v>45017</v>
       </c>
@@ -3205,7 +3212,7 @@
       <c r="J80" s="12"/>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="24">
         <v>45047</v>
       </c>
@@ -3225,7 +3232,7 @@
       <c r="J81" s="12"/>
       <c r="K81" s="21"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="24">
         <v>45078</v>
       </c>
@@ -3245,25 +3252,27 @@
       <c r="J82" s="12"/>
       <c r="K82" s="21"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="24">
         <v>45108</v>
       </c>
       <c r="B83" s="12"/>
-      <c r="C83" s="14"/>
+      <c r="C83" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="12"/>
       <c r="E83" s="9"/>
       <c r="F83" s="12"/>
-      <c r="G83" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="12"/>
       <c r="I83" s="9"/>
       <c r="J83" s="12"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="24">
         <v>45139</v>
       </c>
@@ -3281,7 +3290,7 @@
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="24">
         <v>45170</v>
       </c>
@@ -3299,7 +3308,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="24">
         <v>45200</v>
       </c>
@@ -3317,7 +3326,7 @@
       <c r="J86" s="12"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="24">
         <v>45231</v>
       </c>
@@ -3335,7 +3344,7 @@
       <c r="J87" s="12"/>
       <c r="K87" s="21"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="24">
         <v>45261</v>
       </c>
@@ -3353,7 +3362,7 @@
       <c r="J88" s="12"/>
       <c r="K88" s="21"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="24">
         <v>45292</v>
       </c>
@@ -3371,7 +3380,7 @@
       <c r="J89" s="12"/>
       <c r="K89" s="21"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="24">
         <v>45323</v>
       </c>
@@ -3389,7 +3398,7 @@
       <c r="J90" s="12"/>
       <c r="K90" s="21"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="24">
         <v>45352</v>
       </c>
@@ -3407,7 +3416,7 @@
       <c r="J91" s="12"/>
       <c r="K91" s="21"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="24">
         <v>45383</v>
       </c>
@@ -3425,7 +3434,7 @@
       <c r="J92" s="12"/>
       <c r="K92" s="21"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="24">
         <v>45413</v>
       </c>
@@ -3443,7 +3452,7 @@
       <c r="J93" s="12"/>
       <c r="K93" s="21"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="24">
         <v>45444</v>
       </c>
@@ -3461,7 +3470,7 @@
       <c r="J94" s="12"/>
       <c r="K94" s="21"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="24">
         <v>45474</v>
       </c>
@@ -3479,7 +3488,7 @@
       <c r="J95" s="12"/>
       <c r="K95" s="21"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="24">
         <v>45505</v>
       </c>
@@ -3497,7 +3506,7 @@
       <c r="J96" s="13"/>
       <c r="K96" s="16"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="24">
         <v>45536</v>
       </c>
@@ -3515,7 +3524,7 @@
       <c r="J97" s="12"/>
       <c r="K97" s="21"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="24">
         <v>45566</v>
       </c>
@@ -3533,7 +3542,7 @@
       <c r="J98" s="12"/>
       <c r="K98" s="21"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="24">
         <v>45597</v>
       </c>
@@ -3551,7 +3560,7 @@
       <c r="J99" s="12"/>
       <c r="K99" s="21"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="24">
         <v>45627</v>
       </c>
@@ -3569,7 +3578,7 @@
       <c r="J100" s="12"/>
       <c r="K100" s="21"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="24">
         <v>45658</v>
       </c>
@@ -3587,7 +3596,7 @@
       <c r="J101" s="12"/>
       <c r="K101" s="21"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="24">
         <v>45689</v>
       </c>
@@ -3605,7 +3614,7 @@
       <c r="J102" s="12"/>
       <c r="K102" s="21"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="24">
         <v>45717</v>
       </c>
@@ -3623,7 +3632,7 @@
       <c r="J103" s="12"/>
       <c r="K103" s="21"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="24">
         <v>45748</v>
       </c>
@@ -3641,7 +3650,7 @@
       <c r="J104" s="12"/>
       <c r="K104" s="21"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="24"/>
       <c r="B105" s="13"/>
       <c r="C105" s="14"/>
@@ -3657,7 +3666,7 @@
       <c r="J105" s="12"/>
       <c r="K105" s="21"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="24"/>
       <c r="B106" s="13"/>
       <c r="C106" s="14"/>
@@ -3673,7 +3682,7 @@
       <c r="J106" s="12"/>
       <c r="K106" s="21"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="24"/>
       <c r="B107" s="13"/>
       <c r="C107" s="14"/>
@@ -3689,7 +3698,7 @@
       <c r="J107" s="13"/>
       <c r="K107" s="16"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="24"/>
       <c r="B108" s="12"/>
       <c r="C108" s="14"/>
@@ -3705,7 +3714,7 @@
       <c r="J108" s="12"/>
       <c r="K108" s="21"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="24"/>
       <c r="B109" s="12"/>
       <c r="C109" s="14"/>
@@ -3721,7 +3730,7 @@
       <c r="J109" s="12"/>
       <c r="K109" s="21"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="24"/>
       <c r="B110" s="12"/>
       <c r="C110" s="14"/>
@@ -3737,7 +3746,7 @@
       <c r="J110" s="12"/>
       <c r="K110" s="21"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="24"/>
       <c r="B111" s="12"/>
       <c r="C111" s="14"/>
@@ -3753,7 +3762,7 @@
       <c r="J111" s="12"/>
       <c r="K111" s="21"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="24"/>
       <c r="B112" s="13"/>
       <c r="C112" s="14"/>
@@ -3771,23 +3780,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3810,34 +3819,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A46" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A55" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
+      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -3849,16 +3858,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="47"/>
+      <c r="K2" s="48"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -3867,16 +3876,16 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="48"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="52"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -3887,18 +3896,18 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="48"/>
+      <c r="G4" s="47"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="47"/>
+      <c r="K4" s="48"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -3906,7 +3915,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -3919,24 +3928,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3971,7 +3980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -3980,7 +3989,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>108.661</v>
+        <v>104.661</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -3990,12 +3999,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>125.25</v>
+        <v>124.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
         <v>43</v>
       </c>
@@ -4017,7 +4026,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>43101</v>
       </c>
@@ -4039,7 +4048,7 @@
         <v>43130</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="24"/>
       <c r="B12" s="21" t="s">
         <v>44</v>
@@ -4061,7 +4070,7 @@
         <v>43144</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>43132</v>
       </c>
@@ -4085,7 +4094,7 @@
         <v>43179</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>43252</v>
       </c>
@@ -4109,7 +4118,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <v>43282</v>
       </c>
@@ -4131,7 +4140,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="24"/>
       <c r="B16" s="21" t="s">
         <v>44</v>
@@ -4153,7 +4162,7 @@
         <v>43308</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>43313</v>
       </c>
@@ -4177,7 +4186,7 @@
         <v>43334</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>43344</v>
       </c>
@@ -4201,7 +4210,7 @@
         <v>43350</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="24"/>
       <c r="B19" s="21" t="s">
         <v>44</v>
@@ -4221,7 +4230,7 @@
         <v>43370</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
         <v>50</v>
       </c>
@@ -4239,7 +4248,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="24">
         <v>43525</v>
       </c>
@@ -4261,7 +4270,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="24">
         <v>43709</v>
       </c>
@@ -4285,7 +4294,7 @@
         <v>43673</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="24">
         <v>43800</v>
       </c>
@@ -4307,7 +4316,7 @@
         <v>43809</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="37" t="s">
         <v>54</v>
       </c>
@@ -4325,7 +4334,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="24">
         <v>43831</v>
       </c>
@@ -4343,7 +4352,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="24">
         <v>43862</v>
       </c>
@@ -4365,7 +4374,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="24"/>
       <c r="B27" s="21" t="s">
         <v>55</v>
@@ -4385,7 +4394,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="24">
         <v>43891</v>
       </c>
@@ -4407,7 +4416,7 @@
         <v>43902</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="24">
         <v>44044</v>
       </c>
@@ -4429,7 +4438,7 @@
         <v>44057</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="24">
         <v>44075</v>
       </c>
@@ -4453,7 +4462,7 @@
         <v>44088</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="24">
         <v>44166</v>
       </c>
@@ -4477,7 +4486,7 @@
         <v>44193</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="37" t="s">
         <v>57</v>
       </c>
@@ -4495,7 +4504,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="24">
         <v>44197</v>
       </c>
@@ -4519,7 +4528,7 @@
         <v>44204</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="24"/>
       <c r="B34" s="21" t="s">
         <v>39</v>
@@ -4539,7 +4548,7 @@
         <v>44225</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="24">
         <v>44256</v>
       </c>
@@ -4561,7 +4570,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="24">
         <v>44378</v>
       </c>
@@ -4585,7 +4594,7 @@
         <v>44378</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="24">
         <v>44470</v>
       </c>
@@ -4609,7 +4618,7 @@
         <v>44491</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="24"/>
       <c r="B38" s="21" t="s">
         <v>44</v>
@@ -4631,7 +4640,7 @@
         <v>44496</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="24"/>
       <c r="B39" s="21" t="s">
         <v>44</v>
@@ -4653,7 +4662,7 @@
         <v>44498</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="24">
         <v>44501</v>
       </c>
@@ -4677,7 +4686,7 @@
         <v>44519</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="37" t="s">
         <v>35</v>
       </c>
@@ -4695,7 +4704,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="24">
         <v>44562</v>
       </c>
@@ -4717,7 +4726,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="24">
         <v>44593</v>
       </c>
@@ -4739,7 +4748,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="24">
         <v>44774</v>
       </c>
@@ -4763,7 +4772,7 @@
         <v>44795</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="24"/>
       <c r="B45" s="21" t="s">
         <v>47</v>
@@ -4785,7 +4794,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="24"/>
       <c r="B46" s="21" t="s">
         <v>47</v>
@@ -4807,7 +4816,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="24">
         <v>44805</v>
       </c>
@@ -4831,7 +4840,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="24"/>
       <c r="B48" s="21" t="s">
         <v>44</v>
@@ -4853,7 +4862,7 @@
         <v>44823</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="24"/>
       <c r="B49" s="21" t="s">
         <v>44</v>
@@ -4875,7 +4884,7 @@
         <v>44806</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="37" t="s">
         <v>75</v>
       </c>
@@ -4890,7 +4899,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="24">
         <v>44927</v>
       </c>
@@ -4909,7 +4918,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="24">
         <v>45017</v>
       </c>
@@ -4930,7 +4939,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="24"/>
       <c r="B53" s="12" t="s">
         <v>45</v>
@@ -4949,7 +4958,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="24"/>
       <c r="B54" s="12" t="s">
         <v>77</v>
@@ -4968,7 +4977,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="24">
         <v>45047</v>
       </c>
@@ -4987,7 +4996,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="24">
         <v>45078</v>
       </c>
@@ -5006,7 +5015,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="24">
         <v>45104</v>
       </c>
@@ -5027,7 +5036,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="24">
         <v>45110</v>
       </c>
@@ -5048,7 +5057,7 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="24">
         <v>45106</v>
       </c>
@@ -5069,7 +5078,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="24">
         <v>45112</v>
       </c>
@@ -5090,7 +5099,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="24"/>
       <c r="B61" s="12" t="s">
         <v>45</v>
@@ -5109,46 +5118,66 @@
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="24"/>
-      <c r="B62" s="12"/>
+      <c r="B62" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="C62" s="14"/>
-      <c r="D62" s="12"/>
+      <c r="D62" s="12">
+        <v>2</v>
+      </c>
       <c r="E62" s="9"/>
       <c r="F62" s="12"/>
       <c r="G62" s="14"/>
       <c r="H62" s="12"/>
       <c r="I62" s="9"/>
       <c r="J62" s="12"/>
-      <c r="K62" s="21"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K62" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="24"/>
-      <c r="B63" s="12"/>
+      <c r="B63" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="C63" s="14"/>
       <c r="D63" s="12"/>
       <c r="E63" s="9"/>
       <c r="F63" s="12"/>
       <c r="G63" s="14"/>
-      <c r="H63" s="12"/>
+      <c r="H63" s="12">
+        <v>1</v>
+      </c>
       <c r="I63" s="9"/>
       <c r="J63" s="12"/>
-      <c r="K63" s="21"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="24"/>
-      <c r="B64" s="12"/>
+      <c r="K63" s="39">
+        <v>45118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="24">
+        <v>45133</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="C64" s="14"/>
-      <c r="D64" s="12"/>
+      <c r="D64" s="12">
+        <v>2</v>
+      </c>
       <c r="E64" s="9"/>
       <c r="F64" s="12"/>
       <c r="G64" s="14"/>
       <c r="H64" s="12"/>
       <c r="I64" s="9"/>
       <c r="J64" s="12"/>
-      <c r="K64" s="21"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K64" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="24"/>
       <c r="B65" s="12"/>
       <c r="C65" s="14"/>
@@ -5161,7 +5190,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="24"/>
       <c r="B66" s="12"/>
       <c r="C66" s="14"/>
@@ -5174,7 +5203,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="24"/>
       <c r="B67" s="12"/>
       <c r="C67" s="14"/>
@@ -5187,7 +5216,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="24"/>
       <c r="B68" s="12"/>
       <c r="C68" s="14"/>
@@ -5200,7 +5229,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="24"/>
       <c r="B69" s="12"/>
       <c r="C69" s="14"/>
@@ -5213,7 +5242,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="24"/>
       <c r="B70" s="13"/>
       <c r="C70" s="14"/>
@@ -5226,7 +5255,7 @@
       <c r="J70" s="13"/>
       <c r="K70" s="16"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="24"/>
       <c r="B71" s="13"/>
       <c r="C71" s="14"/>
@@ -5239,7 +5268,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="21"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="24"/>
       <c r="B72" s="13"/>
       <c r="C72" s="14"/>
@@ -5252,7 +5281,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="21"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="24"/>
       <c r="B73" s="13"/>
       <c r="C73" s="14"/>
@@ -5265,7 +5294,7 @@
       <c r="J73" s="12"/>
       <c r="K73" s="21"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="24"/>
       <c r="B74" s="13"/>
       <c r="C74" s="14"/>
@@ -5278,7 +5307,7 @@
       <c r="J74" s="12"/>
       <c r="K74" s="21"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="24"/>
       <c r="B75" s="13"/>
       <c r="C75" s="14"/>
@@ -5291,7 +5320,7 @@
       <c r="J75" s="12"/>
       <c r="K75" s="21"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="24"/>
       <c r="B76" s="13"/>
       <c r="C76" s="14"/>
@@ -5304,7 +5333,7 @@
       <c r="J76" s="12"/>
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="24"/>
       <c r="B77" s="13"/>
       <c r="C77" s="14"/>
@@ -5317,7 +5346,7 @@
       <c r="J77" s="12"/>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="24"/>
       <c r="B78" s="13"/>
       <c r="C78" s="14"/>
@@ -5330,7 +5359,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="24"/>
       <c r="B79" s="13"/>
       <c r="C79" s="14"/>
@@ -5343,7 +5372,7 @@
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="24"/>
       <c r="B80" s="13"/>
       <c r="C80" s="14"/>
@@ -5359,7 +5388,7 @@
       <c r="J80" s="12"/>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="24"/>
       <c r="B81" s="13"/>
       <c r="C81" s="14"/>
@@ -5375,7 +5404,7 @@
       <c r="J81" s="13"/>
       <c r="K81" s="16"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="24"/>
       <c r="B82" s="12"/>
       <c r="C82" s="14"/>
@@ -5391,7 +5420,7 @@
       <c r="J82" s="12"/>
       <c r="K82" s="21"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="24"/>
       <c r="B83" s="12"/>
       <c r="C83" s="14"/>
@@ -5407,7 +5436,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="24"/>
       <c r="B84" s="12"/>
       <c r="C84" s="14"/>
@@ -5423,7 +5452,7 @@
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="24"/>
       <c r="B85" s="12"/>
       <c r="C85" s="14"/>
@@ -5439,7 +5468,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="24"/>
       <c r="B86" s="13"/>
       <c r="C86" s="14"/>
@@ -5470,10 +5499,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5496,28 +5525,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="54" t="s">
         <v>33</v>
       </c>
@@ -5530,7 +5559,7 @@
       <c r="K1" s="55"/>
       <c r="L1" s="55"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
@@ -5559,7 +5588,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="38">
         <v>117.661</v>
       </c>
@@ -5583,7 +5612,7 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E4" s="1" t="str">
         <f>IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2))</f>
         <v/>
@@ -5598,10 +5627,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="35" t="s">
         <v>28</v>
       </c>
@@ -5621,7 +5650,7 @@
       <c r="K6" s="56"/>
       <c r="L6" s="56"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -5647,7 +5676,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -5673,7 +5702,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -5699,7 +5728,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -5725,7 +5754,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -5751,7 +5780,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -5777,7 +5806,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -5803,7 +5832,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -5829,7 +5858,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -5849,7 +5878,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -5869,7 +5898,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -5889,7 +5918,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -5910,7 +5939,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -5931,7 +5960,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -5952,7 +5981,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -5973,7 +6002,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -5994,7 +6023,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -6015,7 +6044,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -6036,7 +6065,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -6057,7 +6086,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -6078,7 +6107,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -6099,7 +6128,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -6120,7 +6149,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -6141,7 +6170,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -6162,7 +6191,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -6183,7 +6212,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -6204,7 +6233,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -6225,7 +6254,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -6246,7 +6275,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -6267,7 +6296,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -6288,7 +6317,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -6309,7 +6338,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -6318,7 +6347,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -6327,7 +6356,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -6336,7 +6365,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -6345,7 +6374,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -6354,7 +6383,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -6363,7 +6392,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -6372,7 +6401,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -6381,7 +6410,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -6390,7 +6419,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -6399,7 +6428,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -6408,7 +6437,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -6417,7 +6446,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -6426,7 +6455,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -6435,7 +6464,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -6444,7 +6473,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -6453,7 +6482,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -6462,7 +6491,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -6471,7 +6500,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -6480,7 +6509,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -6489,7 +6518,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -6498,7 +6527,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -6507,7 +6536,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -6516,7 +6545,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -6525,7 +6554,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -6534,7 +6563,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -6543,7 +6572,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -6552,7 +6581,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -6561,7 +6590,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -6570,7 +6599,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/GONZALES, MARIO.xlsx
+++ b/NEW HR/GONZALES, MARIO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4A6752-F308-433D-A857-73A839DDDC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="3" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="93">
   <si>
     <t>PERIOD</t>
   </si>
@@ -292,12 +291,36 @@
   </si>
   <si>
     <t>8/3,4/2023</t>
+  </si>
+  <si>
+    <t>8/17,18/2023</t>
+  </si>
+  <si>
+    <t>8/10,11/2023</t>
+  </si>
+  <si>
+    <t>8/24,25/2023</t>
+  </si>
+  <si>
+    <t>8/31 - 9/1/2023</t>
+  </si>
+  <si>
+    <t>9/7,8/2023</t>
+  </si>
+  <si>
+    <t>9/14,15/2023</t>
+  </si>
+  <si>
+    <t>9/21,22/2023</t>
+  </si>
+  <si>
+    <t>9/28,29/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -655,17 +678,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -675,6 +695,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1186,7 +1209,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1203,25 +1226,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K112" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K112" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1233,25 +1256,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K86" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K86" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1558,34 +1581,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K112"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A73" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="D8" sqref="D8"/>
-      <selection pane="bottomLeft" activeCell="C82" sqref="C82:C83"/>
+      <selection pane="bottomLeft" activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1597,16 +1620,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="48"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1615,16 +1638,16 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="47"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="51"/>
+      <c r="K3" s="52"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -1635,18 +1658,18 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="47"/>
+      <c r="G4" s="48"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="48"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="48"/>
+      <c r="K4" s="49"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -1654,7 +1677,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -1667,24 +1690,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1719,7 +1742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1728,7 +1751,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>58.75</v>
+        <v>60</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1738,12 +1761,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>83.75</v>
+        <v>85</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
         <v>43</v>
       </c>
@@ -1765,7 +1788,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>43101</v>
       </c>
@@ -1785,7 +1808,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="39"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>43132</v>
       </c>
@@ -1805,7 +1828,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="39"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>43160</v>
       </c>
@@ -1825,7 +1848,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>43191</v>
       </c>
@@ -1845,7 +1868,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>43221</v>
       </c>
@@ -1865,7 +1888,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>43252</v>
       </c>
@@ -1891,7 +1914,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>43282</v>
       </c>
@@ -1911,7 +1934,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="39"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>43313</v>
       </c>
@@ -1931,7 +1954,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="39"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>43344</v>
       </c>
@@ -1957,7 +1980,7 @@
         <v>43371</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>43374</v>
       </c>
@@ -1977,7 +2000,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>43405</v>
       </c>
@@ -1997,7 +2020,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>43435</v>
       </c>
@@ -2021,7 +2044,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
         <v>50</v>
       </c>
@@ -2039,7 +2062,7 @@
       <c r="J23" s="12"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>43466</v>
       </c>
@@ -2059,7 +2082,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>43497</v>
       </c>
@@ -2079,7 +2102,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>43525</v>
       </c>
@@ -2105,7 +2128,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>43556</v>
       </c>
@@ -2125,7 +2148,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>43586</v>
       </c>
@@ -2145,7 +2168,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>43617</v>
       </c>
@@ -2165,7 +2188,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>43647</v>
       </c>
@@ -2185,7 +2208,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>43678</v>
       </c>
@@ -2205,7 +2228,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>43709</v>
       </c>
@@ -2225,7 +2248,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="39"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>43739</v>
       </c>
@@ -2245,7 +2268,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <v>43770</v>
       </c>
@@ -2265,7 +2288,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>43800</v>
       </c>
@@ -2289,7 +2312,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="37" t="s">
         <v>54</v>
       </c>
@@ -2307,7 +2330,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>43831</v>
       </c>
@@ -2327,7 +2350,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
         <v>43862</v>
       </c>
@@ -2347,7 +2370,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="39"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <v>43891</v>
       </c>
@@ -2367,7 +2390,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="39"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>43922</v>
       </c>
@@ -2387,7 +2410,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>43952</v>
       </c>
@@ -2407,7 +2430,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <v>43983</v>
       </c>
@@ -2427,7 +2450,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <v>44013</v>
       </c>
@@ -2447,7 +2470,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <v>44044</v>
       </c>
@@ -2467,7 +2490,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="39"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <v>44075</v>
       </c>
@@ -2487,7 +2510,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="39"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
         <v>44105</v>
       </c>
@@ -2507,7 +2530,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>44136</v>
       </c>
@@ -2527,7 +2550,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
         <v>44166</v>
       </c>
@@ -2551,7 +2574,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="37" t="s">
         <v>57</v>
       </c>
@@ -2569,7 +2592,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="24">
         <v>44197</v>
       </c>
@@ -2589,7 +2612,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="39"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <v>44228</v>
       </c>
@@ -2609,7 +2632,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <v>44256</v>
       </c>
@@ -2629,7 +2652,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="24">
         <v>44287</v>
       </c>
@@ -2649,7 +2672,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
         <v>44317</v>
       </c>
@@ -2669,7 +2692,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
         <v>44348</v>
       </c>
@@ -2689,7 +2712,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
         <v>44378</v>
       </c>
@@ -2709,7 +2732,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="39"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="24">
         <v>44409</v>
       </c>
@@ -2729,7 +2752,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <v>44440</v>
       </c>
@@ -2749,7 +2772,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <v>44470</v>
       </c>
@@ -2769,7 +2792,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="39"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
         <v>44501</v>
       </c>
@@ -2795,7 +2818,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="24">
         <v>44531</v>
       </c>
@@ -2815,7 +2838,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="39"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="37" t="s">
         <v>35</v>
       </c>
@@ -2833,7 +2856,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="24">
         <v>44562</v>
       </c>
@@ -2853,7 +2876,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="24">
         <v>44593</v>
       </c>
@@ -2879,7 +2902,7 @@
         <v>44601</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="24"/>
       <c r="B65" s="12" t="s">
         <v>38</v>
@@ -2901,7 +2924,7 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="24">
         <v>44621</v>
       </c>
@@ -2921,7 +2944,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="24">
         <f>EDATE(A66,1)</f>
         <v>44652</v>
@@ -2942,7 +2965,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="24">
         <f t="shared" ref="A68:A71" si="0">EDATE(A67,1)</f>
         <v>44682</v>
@@ -2963,7 +2986,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="24">
         <f t="shared" si="0"/>
         <v>44713</v>
@@ -2984,7 +3007,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="24">
         <f t="shared" si="0"/>
         <v>44743</v>
@@ -3005,7 +3028,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="24">
         <f t="shared" si="0"/>
         <v>44774</v>
@@ -3026,7 +3049,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="39"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="24">
         <f>EDATE(A71,1)</f>
         <v>44805</v>
@@ -3047,7 +3070,7 @@
       <c r="J72" s="13"/>
       <c r="K72" s="16"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="24">
         <f>EDATE(A72,1)</f>
         <v>44835</v>
@@ -3074,7 +3097,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="24">
         <v>44866</v>
       </c>
@@ -3094,7 +3117,7 @@
       <c r="J74" s="12"/>
       <c r="K74" s="21"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="24">
         <v>44896</v>
       </c>
@@ -3114,7 +3137,7 @@
       <c r="J75" s="12"/>
       <c r="K75" s="21"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="37" t="s">
         <v>75</v>
       </c>
@@ -3132,7 +3155,7 @@
       <c r="J76" s="12"/>
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="24">
         <v>44927</v>
       </c>
@@ -3152,7 +3175,7 @@
       <c r="J77" s="12"/>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="24">
         <v>44958</v>
       </c>
@@ -3172,7 +3195,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="24">
         <v>44986</v>
       </c>
@@ -3192,7 +3215,7 @@
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="24">
         <v>45017</v>
       </c>
@@ -3212,7 +3235,7 @@
       <c r="J80" s="12"/>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="24">
         <v>45047</v>
       </c>
@@ -3232,7 +3255,7 @@
       <c r="J81" s="12"/>
       <c r="K81" s="21"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="24">
         <v>45078</v>
       </c>
@@ -3252,7 +3275,7 @@
       <c r="J82" s="12"/>
       <c r="K82" s="21"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="24">
         <v>45108</v>
       </c>
@@ -3272,25 +3295,27 @@
       <c r="J83" s="12"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="24">
         <v>45139</v>
       </c>
       <c r="B84" s="12"/>
-      <c r="C84" s="14"/>
+      <c r="C84" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="12"/>
       <c r="E84" s="9"/>
       <c r="F84" s="12"/>
-      <c r="G84" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="12"/>
       <c r="I84" s="9"/>
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="24">
         <v>45170</v>
       </c>
@@ -3308,7 +3333,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="24">
         <v>45200</v>
       </c>
@@ -3326,7 +3351,7 @@
       <c r="J86" s="12"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="24">
         <v>45231</v>
       </c>
@@ -3344,7 +3369,7 @@
       <c r="J87" s="12"/>
       <c r="K87" s="21"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="24">
         <v>45261</v>
       </c>
@@ -3362,7 +3387,7 @@
       <c r="J88" s="12"/>
       <c r="K88" s="21"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="24">
         <v>45292</v>
       </c>
@@ -3380,7 +3405,7 @@
       <c r="J89" s="12"/>
       <c r="K89" s="21"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="24">
         <v>45323</v>
       </c>
@@ -3398,7 +3423,7 @@
       <c r="J90" s="12"/>
       <c r="K90" s="21"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="24">
         <v>45352</v>
       </c>
@@ -3416,7 +3441,7 @@
       <c r="J91" s="12"/>
       <c r="K91" s="21"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="24">
         <v>45383</v>
       </c>
@@ -3434,7 +3459,7 @@
       <c r="J92" s="12"/>
       <c r="K92" s="21"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="24">
         <v>45413</v>
       </c>
@@ -3452,7 +3477,7 @@
       <c r="J93" s="12"/>
       <c r="K93" s="21"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="24">
         <v>45444</v>
       </c>
@@ -3470,7 +3495,7 @@
       <c r="J94" s="12"/>
       <c r="K94" s="21"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="24">
         <v>45474</v>
       </c>
@@ -3488,7 +3513,7 @@
       <c r="J95" s="12"/>
       <c r="K95" s="21"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="24">
         <v>45505</v>
       </c>
@@ -3506,7 +3531,7 @@
       <c r="J96" s="13"/>
       <c r="K96" s="16"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="24">
         <v>45536</v>
       </c>
@@ -3524,7 +3549,7 @@
       <c r="J97" s="12"/>
       <c r="K97" s="21"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="24">
         <v>45566</v>
       </c>
@@ -3542,7 +3567,7 @@
       <c r="J98" s="12"/>
       <c r="K98" s="21"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="24">
         <v>45597</v>
       </c>
@@ -3560,7 +3585,7 @@
       <c r="J99" s="12"/>
       <c r="K99" s="21"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="24">
         <v>45627</v>
       </c>
@@ -3578,7 +3603,7 @@
       <c r="J100" s="12"/>
       <c r="K100" s="21"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="24">
         <v>45658</v>
       </c>
@@ -3596,7 +3621,7 @@
       <c r="J101" s="12"/>
       <c r="K101" s="21"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="24">
         <v>45689</v>
       </c>
@@ -3614,7 +3639,7 @@
       <c r="J102" s="12"/>
       <c r="K102" s="21"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="24">
         <v>45717</v>
       </c>
@@ -3632,7 +3657,7 @@
       <c r="J103" s="12"/>
       <c r="K103" s="21"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="24">
         <v>45748</v>
       </c>
@@ -3650,7 +3675,7 @@
       <c r="J104" s="12"/>
       <c r="K104" s="21"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="24"/>
       <c r="B105" s="13"/>
       <c r="C105" s="14"/>
@@ -3666,7 +3691,7 @@
       <c r="J105" s="12"/>
       <c r="K105" s="21"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="24"/>
       <c r="B106" s="13"/>
       <c r="C106" s="14"/>
@@ -3682,7 +3707,7 @@
       <c r="J106" s="12"/>
       <c r="K106" s="21"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="24"/>
       <c r="B107" s="13"/>
       <c r="C107" s="14"/>
@@ -3698,7 +3723,7 @@
       <c r="J107" s="13"/>
       <c r="K107" s="16"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="24"/>
       <c r="B108" s="12"/>
       <c r="C108" s="14"/>
@@ -3714,7 +3739,7 @@
       <c r="J108" s="12"/>
       <c r="K108" s="21"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="24"/>
       <c r="B109" s="12"/>
       <c r="C109" s="14"/>
@@ -3730,7 +3755,7 @@
       <c r="J109" s="12"/>
       <c r="K109" s="21"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="24"/>
       <c r="B110" s="12"/>
       <c r="C110" s="14"/>
@@ -3746,7 +3771,7 @@
       <c r="J110" s="12"/>
       <c r="K110" s="21"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="24"/>
       <c r="B111" s="12"/>
       <c r="C111" s="14"/>
@@ -3762,7 +3787,7 @@
       <c r="J111" s="12"/>
       <c r="K111" s="21"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="24"/>
       <c r="B112" s="13"/>
       <c r="C112" s="14"/>
@@ -3780,23 +3805,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3819,34 +3844,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A55" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A55" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
+      <selection pane="bottomLeft" activeCell="K73" sqref="K73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -3858,16 +3883,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="48"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -3876,16 +3901,16 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="47"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="51"/>
+      <c r="K3" s="52"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -3896,18 +3921,18 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="47"/>
+      <c r="G4" s="48"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="48"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="48"/>
+      <c r="K4" s="49"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -3915,7 +3940,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -3928,24 +3953,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3980,7 +4005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -3989,7 +4014,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>104.661</v>
+        <v>88.661000000000001</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -3999,12 +4024,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>124.25</v>
+        <v>123.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
         <v>43</v>
       </c>
@@ -4026,7 +4051,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>43101</v>
       </c>
@@ -4048,7 +4073,7 @@
         <v>43130</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="21" t="s">
         <v>44</v>
@@ -4070,7 +4095,7 @@
         <v>43144</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>43132</v>
       </c>
@@ -4094,7 +4119,7 @@
         <v>43179</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>43252</v>
       </c>
@@ -4118,7 +4143,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>43282</v>
       </c>
@@ -4140,7 +4165,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="21" t="s">
         <v>44</v>
@@ -4162,7 +4187,7 @@
         <v>43308</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>43313</v>
       </c>
@@ -4186,7 +4211,7 @@
         <v>43334</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>43344</v>
       </c>
@@ -4210,7 +4235,7 @@
         <v>43350</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="21" t="s">
         <v>44</v>
@@ -4230,7 +4255,7 @@
         <v>43370</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>50</v>
       </c>
@@ -4248,7 +4273,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>43525</v>
       </c>
@@ -4270,7 +4295,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>43709</v>
       </c>
@@ -4294,7 +4319,7 @@
         <v>43673</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>43800</v>
       </c>
@@ -4316,7 +4341,7 @@
         <v>43809</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="37" t="s">
         <v>54</v>
       </c>
@@ -4334,7 +4359,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>43831</v>
       </c>
@@ -4352,7 +4377,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>43862</v>
       </c>
@@ -4374,7 +4399,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="24"/>
       <c r="B27" s="21" t="s">
         <v>55</v>
@@ -4394,7 +4419,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>43891</v>
       </c>
@@ -4416,7 +4441,7 @@
         <v>43902</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>44044</v>
       </c>
@@ -4438,7 +4463,7 @@
         <v>44057</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>44075</v>
       </c>
@@ -4462,7 +4487,7 @@
         <v>44088</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>44166</v>
       </c>
@@ -4486,7 +4511,7 @@
         <v>44193</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="37" t="s">
         <v>57</v>
       </c>
@@ -4504,7 +4529,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>44197</v>
       </c>
@@ -4528,7 +4553,7 @@
         <v>44204</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="24"/>
       <c r="B34" s="21" t="s">
         <v>39</v>
@@ -4548,7 +4573,7 @@
         <v>44225</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>44256</v>
       </c>
@@ -4570,7 +4595,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
         <v>44378</v>
       </c>
@@ -4594,7 +4619,7 @@
         <v>44378</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>44470</v>
       </c>
@@ -4618,7 +4643,7 @@
         <v>44491</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
       <c r="B38" s="21" t="s">
         <v>44</v>
@@ -4640,7 +4665,7 @@
         <v>44496</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="24"/>
       <c r="B39" s="21" t="s">
         <v>44</v>
@@ -4662,7 +4687,7 @@
         <v>44498</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>44501</v>
       </c>
@@ -4686,7 +4711,7 @@
         <v>44519</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="37" t="s">
         <v>35</v>
       </c>
@@ -4704,7 +4729,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <v>44562</v>
       </c>
@@ -4726,7 +4751,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <v>44593</v>
       </c>
@@ -4748,7 +4773,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <v>44774</v>
       </c>
@@ -4772,7 +4797,7 @@
         <v>44795</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="24"/>
       <c r="B45" s="21" t="s">
         <v>47</v>
@@ -4794,7 +4819,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="24"/>
       <c r="B46" s="21" t="s">
         <v>47</v>
@@ -4816,7 +4841,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>44805</v>
       </c>
@@ -4840,7 +4865,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="24"/>
       <c r="B48" s="21" t="s">
         <v>44</v>
@@ -4862,7 +4887,7 @@
         <v>44823</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="24"/>
       <c r="B49" s="21" t="s">
         <v>44</v>
@@ -4884,7 +4909,7 @@
         <v>44806</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="37" t="s">
         <v>75</v>
       </c>
@@ -4899,7 +4924,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <v>44927</v>
       </c>
@@ -4918,7 +4943,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <v>45017</v>
       </c>
@@ -4939,7 +4964,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="24"/>
       <c r="B53" s="12" t="s">
         <v>45</v>
@@ -4958,7 +4983,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="24"/>
       <c r="B54" s="12" t="s">
         <v>77</v>
@@ -4977,7 +5002,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
         <v>45047</v>
       </c>
@@ -4996,7 +5021,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
         <v>45078</v>
       </c>
@@ -5015,7 +5040,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="24">
         <v>45104</v>
       </c>
@@ -5036,7 +5061,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <v>45110</v>
       </c>
@@ -5057,7 +5082,7 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <v>45106</v>
       </c>
@@ -5078,7 +5103,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
         <v>45112</v>
       </c>
@@ -5099,7 +5124,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="24"/>
       <c r="B61" s="12" t="s">
         <v>45</v>
@@ -5118,7 +5143,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="24"/>
       <c r="B62" s="12" t="s">
         <v>45</v>
@@ -5137,7 +5162,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="24"/>
       <c r="B63" s="12" t="s">
         <v>44</v>
@@ -5156,7 +5181,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="24">
         <v>45133</v>
       </c>
@@ -5177,124 +5202,182 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="24"/>
-      <c r="B65" s="12"/>
+      <c r="B65" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="C65" s="14"/>
-      <c r="D65" s="12"/>
+      <c r="D65" s="12">
+        <v>2</v>
+      </c>
       <c r="E65" s="9"/>
       <c r="F65" s="12"/>
       <c r="G65" s="14"/>
       <c r="H65" s="12"/>
       <c r="I65" s="9"/>
       <c r="J65" s="12"/>
-      <c r="K65" s="21"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="24"/>
-      <c r="B66" s="12"/>
+      <c r="K65" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="24">
+        <v>45148</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="C66" s="14"/>
-      <c r="D66" s="12"/>
+      <c r="D66" s="12">
+        <v>2</v>
+      </c>
       <c r="E66" s="9"/>
       <c r="F66" s="12"/>
       <c r="G66" s="14"/>
       <c r="H66" s="12"/>
       <c r="I66" s="9"/>
       <c r="J66" s="12"/>
-      <c r="K66" s="21"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K66" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="24"/>
-      <c r="B67" s="12"/>
+      <c r="B67" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="C67" s="14"/>
-      <c r="D67" s="12"/>
+      <c r="D67" s="12">
+        <v>2</v>
+      </c>
       <c r="E67" s="9"/>
       <c r="F67" s="12"/>
       <c r="G67" s="14"/>
       <c r="H67" s="12"/>
       <c r="I67" s="9"/>
       <c r="J67" s="12"/>
-      <c r="K67" s="21"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K67" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="24"/>
-      <c r="B68" s="12"/>
+      <c r="B68" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="C68" s="14"/>
-      <c r="D68" s="12"/>
+      <c r="D68" s="12">
+        <v>2</v>
+      </c>
       <c r="E68" s="9"/>
       <c r="F68" s="12"/>
       <c r="G68" s="14"/>
       <c r="H68" s="12"/>
       <c r="I68" s="9"/>
       <c r="J68" s="12"/>
-      <c r="K68" s="21"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="24"/>
-      <c r="B69" s="12"/>
+      <c r="K68" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="24">
+        <v>45173</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="C69" s="14"/>
-      <c r="D69" s="12"/>
+      <c r="D69" s="12">
+        <v>2</v>
+      </c>
       <c r="E69" s="9"/>
       <c r="F69" s="12"/>
       <c r="G69" s="14"/>
       <c r="H69" s="12"/>
       <c r="I69" s="9"/>
       <c r="J69" s="12"/>
-      <c r="K69" s="21"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="24"/>
-      <c r="B70" s="13"/>
+      <c r="B70" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="C70" s="14"/>
-      <c r="D70" s="13"/>
+      <c r="D70" s="13">
+        <v>2</v>
+      </c>
       <c r="E70" s="10"/>
       <c r="F70" s="13"/>
       <c r="G70" s="14"/>
       <c r="H70" s="13"/>
       <c r="I70" s="10"/>
       <c r="J70" s="13"/>
-      <c r="K70" s="16"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="24"/>
-      <c r="B71" s="13"/>
+      <c r="B71" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="C71" s="14"/>
       <c r="D71" s="13"/>
       <c r="E71" s="10"/>
       <c r="F71" s="13"/>
       <c r="G71" s="14"/>
-      <c r="H71" s="12"/>
+      <c r="H71" s="12">
+        <v>1</v>
+      </c>
       <c r="I71" s="9"/>
       <c r="J71" s="12"/>
-      <c r="K71" s="21"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="39">
+        <v>45173</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="24"/>
-      <c r="B72" s="13"/>
+      <c r="B72" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="C72" s="14"/>
-      <c r="D72" s="13"/>
+      <c r="D72" s="13">
+        <v>2</v>
+      </c>
       <c r="E72" s="10"/>
       <c r="F72" s="13"/>
       <c r="G72" s="14"/>
       <c r="H72" s="12"/>
       <c r="I72" s="9"/>
       <c r="J72" s="12"/>
-      <c r="K72" s="21"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K72" s="21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="24"/>
-      <c r="B73" s="13"/>
+      <c r="B73" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="C73" s="14"/>
-      <c r="D73" s="13"/>
+      <c r="D73" s="13">
+        <v>2</v>
+      </c>
       <c r="E73" s="10"/>
       <c r="F73" s="13"/>
       <c r="G73" s="14"/>
       <c r="H73" s="12"/>
       <c r="I73" s="9"/>
       <c r="J73" s="12"/>
-      <c r="K73" s="21"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="24"/>
       <c r="B74" s="13"/>
       <c r="C74" s="14"/>
@@ -5307,7 +5390,7 @@
       <c r="J74" s="12"/>
       <c r="K74" s="21"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="24"/>
       <c r="B75" s="13"/>
       <c r="C75" s="14"/>
@@ -5320,7 +5403,7 @@
       <c r="J75" s="12"/>
       <c r="K75" s="21"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="24"/>
       <c r="B76" s="13"/>
       <c r="C76" s="14"/>
@@ -5333,7 +5416,7 @@
       <c r="J76" s="12"/>
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="24"/>
       <c r="B77" s="13"/>
       <c r="C77" s="14"/>
@@ -5346,7 +5429,7 @@
       <c r="J77" s="12"/>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="24"/>
       <c r="B78" s="13"/>
       <c r="C78" s="14"/>
@@ -5359,7 +5442,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="24"/>
       <c r="B79" s="13"/>
       <c r="C79" s="14"/>
@@ -5372,7 +5455,7 @@
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="24"/>
       <c r="B80" s="13"/>
       <c r="C80" s="14"/>
@@ -5388,7 +5471,7 @@
       <c r="J80" s="12"/>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="24"/>
       <c r="B81" s="13"/>
       <c r="C81" s="14"/>
@@ -5404,7 +5487,7 @@
       <c r="J81" s="13"/>
       <c r="K81" s="16"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="24"/>
       <c r="B82" s="12"/>
       <c r="C82" s="14"/>
@@ -5420,7 +5503,7 @@
       <c r="J82" s="12"/>
       <c r="K82" s="21"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="24"/>
       <c r="B83" s="12"/>
       <c r="C83" s="14"/>
@@ -5436,7 +5519,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="24"/>
       <c r="B84" s="12"/>
       <c r="C84" s="14"/>
@@ -5452,7 +5535,7 @@
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="24"/>
       <c r="B85" s="12"/>
       <c r="C85" s="14"/>
@@ -5468,7 +5551,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="24"/>
       <c r="B86" s="13"/>
       <c r="C86" s="14"/>
@@ -5499,10 +5582,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5525,28 +5608,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="54" t="s">
         <v>33</v>
       </c>
@@ -5559,7 +5642,7 @@
       <c r="K1" s="55"/>
       <c r="L1" s="55"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
@@ -5588,7 +5671,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="38">
         <v>117.661</v>
       </c>
@@ -5612,7 +5695,7 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" s="1" t="str">
         <f>IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2))</f>
         <v/>
@@ -5627,10 +5710,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="35" t="s">
         <v>28</v>
       </c>
@@ -5650,7 +5733,7 @@
       <c r="K6" s="56"/>
       <c r="L6" s="56"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -5676,7 +5759,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -5702,7 +5785,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -5728,7 +5811,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -5754,7 +5837,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -5780,7 +5863,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -5806,7 +5889,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -5832,7 +5915,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -5858,7 +5941,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -5878,7 +5961,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -5898,7 +5981,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -5918,7 +6001,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -5939,7 +6022,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -5960,7 +6043,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -5981,7 +6064,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -6002,7 +6085,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -6023,7 +6106,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -6044,7 +6127,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -6065,7 +6148,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -6086,7 +6169,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -6107,7 +6190,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -6128,7 +6211,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -6149,7 +6232,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -6170,7 +6253,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -6191,7 +6274,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -6212,7 +6295,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -6233,7 +6316,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -6254,7 +6337,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -6275,7 +6358,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -6296,7 +6379,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -6317,7 +6400,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -6338,7 +6421,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -6347,7 +6430,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -6356,7 +6439,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -6365,7 +6448,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -6374,7 +6457,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -6383,7 +6466,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -6392,7 +6475,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -6401,7 +6484,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -6410,7 +6493,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -6419,7 +6502,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -6428,7 +6511,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -6437,7 +6520,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -6446,7 +6529,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -6455,7 +6538,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -6464,7 +6547,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -6473,7 +6556,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -6482,7 +6565,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -6491,7 +6574,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -6500,7 +6583,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -6509,7 +6592,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -6518,7 +6601,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -6527,7 +6610,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -6536,7 +6619,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -6545,7 +6628,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -6554,7 +6637,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -6563,7 +6646,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -6572,7 +6655,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -6581,7 +6664,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -6590,7 +6673,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -6599,7 +6682,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
